--- a/output/google_maps_data_Pasar_Tradisional_Kulon_Progo.xlsx
+++ b/output/google_maps_data_Pasar_Tradisional_Kulon_Progo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K81"/>
+  <dimension ref="A1:J81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,35 +456,30 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>reviews_count</t>
+          <t>reviews_average</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>reviews_average</t>
+          <t>latitude</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>latitude</t>
+          <t>longitude</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>longitude</t>
+          <t>is_permanently_closed</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>is_permanently_closed</t>
+          <t>gmaps_link</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>gmaps_link</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>latest_review_date</t>
         </is>
@@ -502,16 +497,15 @@
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/search/Pasar+Tradisional+Kulon+Progo/@-7.8053056,110.2139841,11z?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -526,25 +520,24 @@
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
+      <c r="E3" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F3" t="n">
-        <v>4.3</v>
+        <v>-7.883987</v>
       </c>
       <c r="G3" t="n">
-        <v>-7.883987</v>
-      </c>
-      <c r="H3" t="n">
         <v>110.108549</v>
       </c>
-      <c r="I3" t="b">
-        <v>0</v>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Jombokan/@-7.8839875,109.8201577,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kulon+Progo!3m6!1s0x2e7ae49bb4fc3f71:0xbcfac484b6b2d858!8m2!3d-7.8839875!4d110.1085488!15sCh1QYXNhciBUcmFkaXNpb25hbCBLdWxvbiBQcm9nb1ofIh1wYXNhciB0cmFkaXNpb25hbCBrdWxvbiBwcm9nb5IBEnRyYWRpdGlvbmFsX21hcmtldJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VReU1VNXhNR3AzUlJBQuABAPoBBAgAED4!16s%2Fg%2F11bwf6s0dh?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J3" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Jombokan/@-7.8839875,109.8201577,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kulon+Progo!3m6!1s0x2e7ae49bb4fc3f71:0xbcfac484b6b2d858!8m2!3d-7.8839875!4d110.1085488!15sCh1QYXNhciBUcmFkaXNpb25hbCBLdWxvbiBQcm9nb1ofIh1wYXNhciB0cmFkaXNpb25hbCBrdWxvbiBwcm9nb5IBEnRyYWRpdGlvbmFsX21hcmtldJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VReU1VNXhNR3AzUlJBQuABAPoBBAgAED4!16s%2Fg%2F11bwf6s0dh?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
         <is>
           <t>2 minggu lalu</t>
         </is>
@@ -563,25 +556,24 @@
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
+      <c r="E4" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F4" t="n">
-        <v>4.4</v>
+        <v>-7.861528</v>
       </c>
       <c r="G4" t="n">
-        <v>-7.861528</v>
-      </c>
-      <c r="H4" t="n">
         <v>110.158504</v>
       </c>
-      <c r="I4" t="b">
-        <v>0</v>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Wates/@-7.8839875,109.8201577,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kulon+Progo!3m6!1s0x2e7afb3c736692d1:0x1dd2f41e51d98bb6!8m2!3d-7.8615281!4d110.158504!15sCh1QYXNhciBUcmFkaXNpb25hbCBLdWxvbiBQcm9nb1ofIh1wYXNhciB0cmFkaXNpb25hbCBrdWxvbiBwcm9nb5IBEnRyYWRpdGlvbmFsX21hcmtldJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOS2MyODJVMDUzRUFF4AEA-gEECDAQRg!16s%2Fg%2F11c46d2stx?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J4" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Wates/@-7.8839875,109.8201577,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kulon+Progo!3m6!1s0x2e7afb3c736692d1:0x1dd2f41e51d98bb6!8m2!3d-7.8615281!4d110.158504!15sCh1QYXNhciBUcmFkaXNpb25hbCBLdWxvbiBQcm9nb1ofIh1wYXNhciB0cmFkaXNpb25hbCBrdWxvbiBwcm9nb5IBEnRyYWRpdGlvbmFsX21hcmtldJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOS2MyODJVMDUzRUFF4AEA-gEECDAQRg!16s%2Fg%2F11c46d2stx?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
         <is>
           <t>2 hari lalu</t>
         </is>
@@ -600,25 +592,24 @@
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
+      <c r="E5" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F5" t="n">
-        <v>4.2</v>
+        <v>-7.939981</v>
       </c>
       <c r="G5" t="n">
-        <v>-7.939981</v>
-      </c>
-      <c r="H5" t="n">
         <v>110.236696</v>
       </c>
-      <c r="I5" t="b">
-        <v>0</v>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Brosot(%EA%A6%A5%EA%A6%B1%EA%A6%82%EA%A6%A7%EA%A6%BF%EA%A6%BA%EA%A6%B4%EA%A6%B1%EA%A6%BA%EA%A6%B4%EA%A6%A0%EA%A7%80)/@-7.8839875,109.8201577,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kulon+Progo!3m6!1s0x2e7afe76395ef75b:0xedfe14415504aef3!8m2!3d-7.9399807!4d110.2366963!15sCh1QYXNhciBUcmFkaXNpb25hbCBLdWxvbiBQcm9nb1ofIh1wYXNhciB0cmFkaXNpb25hbCBrdWxvbiBwcm9nb5IBBm1hcmtldJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VORkxWOUVTRkZCRUFF4AEA-gEECAAQRA!16s%2Fg%2F11c1v0yzr_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J5" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Brosot(%EA%A6%A5%EA%A6%B1%EA%A6%82%EA%A6%A7%EA%A6%BF%EA%A6%BA%EA%A6%B4%EA%A6%B1%EA%A6%BA%EA%A6%B4%EA%A6%A0%EA%A7%80)/@-7.8839875,109.8201577,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kulon+Progo!3m6!1s0x2e7afe76395ef75b:0xedfe14415504aef3!8m2!3d-7.9399807!4d110.2366963!15sCh1QYXNhciBUcmFkaXNpb25hbCBLdWxvbiBQcm9nb1ofIh1wYXNhciB0cmFkaXNpb25hbCBrdWxvbiBwcm9nb5IBBm1hcmtldJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VORkxWOUVTRkZCRUFF4AEA-gEECAAQRA!16s%2Fg%2F11c1v0yzr_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
         <is>
           <t>3 hari lalu</t>
         </is>
@@ -637,25 +628,24 @@
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
+      <c r="E6" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F6" t="n">
-        <v>4.4</v>
+        <v>-7.768266</v>
       </c>
       <c r="G6" t="n">
-        <v>-7.768266</v>
-      </c>
-      <c r="H6" t="n">
         <v>110.210227</v>
       </c>
-      <c r="I6" t="b">
-        <v>0</v>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Nanggulan/@-7.8839875,109.8201577,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kulon+Progo!3m6!1s0x2e7af0e737adcd8b:0x1f02589822011107!8m2!3d-7.7682657!4d110.210227!15sCh1QYXNhciBUcmFkaXNpb25hbCBLdWxvbiBQcm9nb1ofIh1wYXNhciB0cmFkaXNpb25hbCBrdWxvbiBwcm9nb5IBBm1hcmtldJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VRdFgzRjFTR0puRUFF4AEA-gEECAAQRg!16s%2Fg%2F11bx1yhwws?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J6" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Nanggulan/@-7.8839875,109.8201577,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kulon+Progo!3m6!1s0x2e7af0e737adcd8b:0x1f02589822011107!8m2!3d-7.7682657!4d110.210227!15sCh1QYXNhciBUcmFkaXNpb25hbCBLdWxvbiBQcm9nb1ofIh1wYXNhciB0cmFkaXNpb25hbCBrdWxvbiBwcm9nb5IBBm1hcmtldJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VRdFgzRjFTR0puRUFF4AEA-gEECAAQRg!16s%2Fg%2F11bx1yhwws?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -674,25 +664,24 @@
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
+      <c r="E7" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F7" t="n">
-        <v>4.3</v>
+        <v>-7.923672</v>
       </c>
       <c r="G7" t="n">
-        <v>-7.923672</v>
-      </c>
-      <c r="H7" t="n">
         <v>110.15749</v>
       </c>
-      <c r="I7" t="b">
-        <v>0</v>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Ngebung/@-7.8839875,109.8201577,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kulon+Progo!3m6!1s0x2e7afcdb8d377c33:0x2438781013836687!8m2!3d-7.9236721!4d110.1574901!15sCh1QYXNhciBUcmFkaXNpb25hbCBLdWxvbiBQcm9nb1ofIh1wYXNhciB0cmFkaXNpb25hbCBrdWxvbiBwcm9nb5IBEnRyYWRpdGlvbmFsX21hcmtldJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSb05FbGlSRWgzRUFF4AEA-gEECAAQPg!16s%2Fg%2F11bxdw7vmh?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J7" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Ngebung/@-7.8839875,109.8201577,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kulon+Progo!3m6!1s0x2e7afcdb8d377c33:0x2438781013836687!8m2!3d-7.9236721!4d110.1574901!15sCh1QYXNhciBUcmFkaXNpb25hbCBLdWxvbiBQcm9nb1ofIh1wYXNhciB0cmFkaXNpb25hbCBrdWxvbiBwcm9nb5IBEnRyYWRpdGlvbmFsX21hcmtldJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSb05FbGlSRWgzRUFF4AEA-gEECAAQPg!16s%2Fg%2F11bxdw7vmh?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -711,25 +700,24 @@
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
+      <c r="E8" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F8" t="n">
-        <v>4.5</v>
+        <v>-7.753101</v>
       </c>
       <c r="G8" t="n">
-        <v>-7.753101</v>
-      </c>
-      <c r="H8" t="n">
         <v>110.207067</v>
       </c>
-      <c r="I8" t="b">
-        <v>0</v>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Kenteng/@-7.8839875,109.8201577,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kulon+Progo!3m6!1s0x2e7af1f4afbae8bf:0x8c60c56b19625c50!8m2!3d-7.7531006!4d110.2070674!15sCh1QYXNhciBUcmFkaXNpb25hbCBLdWxvbiBQcm9nb1ofIh1wYXNhciB0cmFkaXNpb25hbCBrdWxvbiBwcm9nb5IBBm1hcmtldJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSMU5uTTJSR0puRUFF4AEA-gEECAAQKQ!16s%2Fg%2F11qm2jvkz_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J8" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Kenteng/@-7.8839875,109.8201577,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kulon+Progo!3m6!1s0x2e7af1f4afbae8bf:0x8c60c56b19625c50!8m2!3d-7.7531006!4d110.2070674!15sCh1QYXNhciBUcmFkaXNpb25hbCBLdWxvbiBQcm9nb1ofIh1wYXNhciB0cmFkaXNpb25hbCBrdWxvbiBwcm9nb5IBBm1hcmtldJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSMU5uTTJSR0puRUFF4AEA-gEECAAQKQ!16s%2Fg%2F11qm2jvkz_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
         <is>
           <t>19 jam lalu</t>
         </is>
@@ -748,25 +736,24 @@
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F9" t="n">
-        <v>4.3</v>
+        <v>-7.823517</v>
       </c>
       <c r="G9" t="n">
-        <v>-7.823517</v>
-      </c>
-      <c r="H9" t="n">
         <v>110.16192</v>
       </c>
-      <c r="I9" t="b">
-        <v>0</v>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Clereng/@-7.8839875,109.8201577,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kulon+Progo!3m6!1s0x2e7afabe455e9bb3:0xf52fb18e00e3f1f3!8m2!3d-7.8235172!4d110.1619199!15sCh1QYXNhciBUcmFkaXNpb25hbCBLdWxvbiBQcm9nb1ofIh1wYXNhciB0cmFkaXNpb25hbCBrdWxvbiBwcm9nb5IBBm1hcmtldJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOWGNGQlFOV1puRUFF4AEA-gEECAAQNw!16s%2Fg%2F11b7rnc78q?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J9" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Clereng/@-7.8839875,109.8201577,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kulon+Progo!3m6!1s0x2e7afabe455e9bb3:0xf52fb18e00e3f1f3!8m2!3d-7.8235172!4d110.1619199!15sCh1QYXNhciBUcmFkaXNpb25hbCBLdWxvbiBQcm9nb1ofIh1wYXNhciB0cmFkaXNpb25hbCBrdWxvbiBwcm9nb5IBBm1hcmtldJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOWGNGQlFOV1puRUFF4AEA-gEECAAQNw!16s%2Fg%2F11b7rnc78q?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
         <is>
           <t>2 minggu lalu</t>
         </is>
@@ -785,25 +772,24 @@
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
+      <c r="E10" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F10" t="n">
-        <v>4.4</v>
+        <v>-7.902346</v>
       </c>
       <c r="G10" t="n">
-        <v>-7.902346</v>
-      </c>
-      <c r="H10" t="n">
         <v>110.265029</v>
       </c>
-      <c r="I10" t="b">
-        <v>0</v>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Kasihan+(%EA%A6%A5%EA%A6%B1%EA%A6%82%EA%A6%8F%EA%A6%B1%EA%A6%B6%EA%A6%B2%EA%A6%A4%EA%A7%80)/@-7.902346,109.9766381,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kulon+Progo!3m6!1s0x2e7afec189062937:0x58afb09d7251ba01!8m2!3d-7.902346!4d110.2650292!15sCh1QYXNhciBUcmFkaXNpb25hbCBLdWxvbiBQcm9nb1ofIh1wYXNhciB0cmFkaXNpb25hbCBrdWxvbiBwcm9nb5IBDnByb2R1Y2VfbWFya2V0mgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVJvZEUxTVgwSlJFQUXgAQD6AQQIABAx!16s%2Fg%2F11c6q8d25l?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J10" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Kasihan+(%EA%A6%A5%EA%A6%B1%EA%A6%82%EA%A6%8F%EA%A6%B1%EA%A6%B6%EA%A6%B2%EA%A6%A4%EA%A7%80)/@-7.902346,109.9766381,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kulon+Progo!3m6!1s0x2e7afec189062937:0x58afb09d7251ba01!8m2!3d-7.902346!4d110.2650292!15sCh1QYXNhciBUcmFkaXNpb25hbCBLdWxvbiBQcm9nb1ofIh1wYXNhciB0cmFkaXNpb25hbCBrdWxvbiBwcm9nb5IBDnByb2R1Y2VfbWFya2V0mgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVJvZEUxTVgwSlJFQUXgAQD6AQQIABAx!16s%2Fg%2F11c6q8d25l?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -822,25 +808,24 @@
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
+      <c r="E11" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F11" t="n">
-        <v>4.3</v>
+        <v>-7.743488</v>
       </c>
       <c r="G11" t="n">
-        <v>-7.743488</v>
-      </c>
-      <c r="H11" t="n">
         <v>110.146949</v>
       </c>
-      <c r="I11" t="b">
-        <v>0</v>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Tradisional+Jonggrangan/@-7.902346,109.9766381,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kulon+Progo!3m6!1s0x2e7af1e730aa4a91:0xed3808edccdc6888!8m2!3d-7.7434879!4d110.146949!15sCh1QYXNhciBUcmFkaXNpb25hbCBLdWxvbiBQcm9nb1ofIh1wYXNhciB0cmFkaXNpb25hbCBrdWxvbiBwcm9nb5IBBm1hcmtldJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOaE1VbGxRbXhSUlJBQuABAPoBBAgAED8!16s%2Fg%2F11bzwlm2mp?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J11" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Tradisional+Jonggrangan/@-7.902346,109.9766381,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kulon+Progo!3m6!1s0x2e7af1e730aa4a91:0xed3808edccdc6888!8m2!3d-7.7434879!4d110.146949!15sCh1QYXNhciBUcmFkaXNpb25hbCBLdWxvbiBQcm9nb1ofIh1wYXNhciB0cmFkaXNpb25hbCBrdWxvbiBwcm9nb5IBBm1hcmtldJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOaE1VbGxRbXhSUlJBQuABAPoBBAgAED8!16s%2Fg%2F11bzwlm2mp?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
         <is>
           <t>2 minggu lalu</t>
         </is>
@@ -859,25 +844,24 @@
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
+      <c r="E12" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F12" t="n">
-        <v>4.4</v>
+        <v>-7.86806</v>
       </c>
       <c r="G12" t="n">
-        <v>-7.86806</v>
-      </c>
-      <c r="H12" t="n">
         <v>110.060249</v>
       </c>
-      <c r="I12" t="b">
-        <v>0</v>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Pripih/@-7.8680604,109.7718582,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kulon+Progo!3m6!1s0x2e7ae57e305fe369:0x57cb1b40a1e85e1c!8m2!3d-7.8680604!4d110.0602493!15sCh1QYXNhciBUcmFkaXNpb25hbCBLdWxvbiBQcm9nb1ofIh1wYXNhciB0cmFkaXNpb25hbCBrdWxvbiBwcm9nb5IBBm1hcmtldJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOS2FGbHhPUzFuUlJBQuABAPoBBAgAEC4!16s%2Fg%2F11q2sxj0cf?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J12" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Pripih/@-7.8680604,109.7718582,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kulon+Progo!3m6!1s0x2e7ae57e305fe369:0x57cb1b40a1e85e1c!8m2!3d-7.8680604!4d110.0602493!15sCh1QYXNhciBUcmFkaXNpb25hbCBLdWxvbiBQcm9nb1ofIh1wYXNhciB0cmFkaXNpb25hbCBrdWxvbiBwcm9nb5IBBm1hcmtldJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOS2FGbHhPUzFuUlJBQuABAPoBBAgAEC4!16s%2Fg%2F11q2sxj0cf?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
         <is>
           <t>3 minggu lalu</t>
         </is>
@@ -896,25 +880,24 @@
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
+      <c r="E13" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F13" t="n">
-        <v>4.3</v>
+        <v>-7.887046</v>
       </c>
       <c r="G13" t="n">
-        <v>-7.887046</v>
-      </c>
-      <c r="H13" t="n">
         <v>110.205262</v>
       </c>
-      <c r="I13" t="b">
-        <v>0</v>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Nganggrung/@-7.8870455,109.9168712,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kulon+Progo!3m6!1s0x2e7afc7605a31643:0x1bf08a8e49243e17!8m2!3d-7.8870455!4d110.2052623!15sCh1QYXNhciBUcmFkaXNpb25hbCBLdWxvbiBQcm9nb1ofIh1wYXNhciB0cmFkaXNpb25hbCBrdWxvbiBwcm9nb5IBEnRyYWRpdGlvbmFsX21hcmtldJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOVmQyUmhXa05SRUFF4AEA-gEECAAQQQ!16s%2Fg%2F11bwhb0gk_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J13" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Nganggrung/@-7.8870455,109.9168712,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kulon+Progo!3m6!1s0x2e7afc7605a31643:0x1bf08a8e49243e17!8m2!3d-7.8870455!4d110.2052623!15sCh1QYXNhciBUcmFkaXNpb25hbCBLdWxvbiBQcm9nb1ofIh1wYXNhciB0cmFkaXNpb25hbCBrdWxvbiBwcm9nb5IBEnRyYWRpdGlvbmFsX21hcmtldJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOVmQyUmhXa05SRUFF4AEA-gEECAAQQQ!16s%2Fg%2F11bwhb0gk_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -933,25 +916,24 @@
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
+      <c r="E14" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F14" t="n">
-        <v>4.3</v>
+        <v>-7.929626</v>
       </c>
       <c r="G14" t="n">
-        <v>-7.929626</v>
-      </c>
-      <c r="H14" t="n">
         <v>110.203445</v>
       </c>
-      <c r="I14" t="b">
-        <v>0</v>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Bangeran/@-7.8870455,109.9168712,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kulon+Progo!3m6!1s0x2e7afdb31b070a69:0xb2220e640a62eae4!8m2!3d-7.9296265!4d110.2034454!15sCh1QYXNhciBUcmFkaXNpb25hbCBLdWxvbiBQcm9nb1ofIh1wYXNhciB0cmFkaXNpb25hbCBrdWxvbiBwcm9nb5IBBm1hcmtldJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOTGMyTk1ObGwzRUFF4AEA-gEECAAQMA!16s%2Fg%2F11cp5rnsyl?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J14" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Bangeran/@-7.8870455,109.9168712,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kulon+Progo!3m6!1s0x2e7afdb31b070a69:0xb2220e640a62eae4!8m2!3d-7.9296265!4d110.2034454!15sCh1QYXNhciBUcmFkaXNpb25hbCBLdWxvbiBQcm9nb1ofIh1wYXNhciB0cmFkaXNpb25hbCBrdWxvbiBwcm9nb5IBBm1hcmtldJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOTGMyTk1ObGwzRUFF4AEA-gEECAAQMA!16s%2Fg%2F11cp5rnsyl?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
         <is>
           <t>4 bulan lalu</t>
         </is>
@@ -970,25 +952,24 @@
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
+      <c r="E15" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F15" t="n">
-        <v>4.4</v>
+        <v>-7.751816</v>
       </c>
       <c r="G15" t="n">
-        <v>-7.751816</v>
-      </c>
-      <c r="H15" t="n">
         <v>110.123016</v>
       </c>
-      <c r="I15" t="b">
-        <v>0</v>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Tradisional+Cublak%EA%A7%8B%EA%A6%A5%EA%A6%B1%EA%A6%82%EA%A6%A0%EA%A6%BF%EA%A6%9D%EA%A6%B6%EA%A6%B1%EA%A6%B6%EA%A6%AA%EA%A6%BA%EA%A6%B4%EA%A6%A4%EA%A6%AD%EA%A7%80+%EA%A6%95%EA%A6%B8%EA%A6%A7%EA%A7%80%EA%A6%AD%EA%A6%8F%EA%A7%89/@-7.8870455,109.9168712,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kulon+Progo!3m6!1s0x2e7aee3bf22d9527:0x7c13fe2eab8c4925!8m2!3d-7.7518161!4d110.1230159!15sCh1QYXNhciBUcmFkaXNpb25hbCBLdWxvbiBQcm9nb1ofIh1wYXNhciB0cmFkaXNpb25hbCBrdWxvbiBwcm9nb5IBDnByb2R1Y2VfbWFya2V0mgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJYZDJZek4ydDNSUkFC4AEA-gEECAAQNA!16s%2Fg%2F11c7h9pxvk?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J15" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Tradisional+Cublak%EA%A7%8B%EA%A6%A5%EA%A6%B1%EA%A6%82%EA%A6%A0%EA%A6%BF%EA%A6%9D%EA%A6%B6%EA%A6%B1%EA%A6%B6%EA%A6%AA%EA%A6%BA%EA%A6%B4%EA%A6%A4%EA%A6%AD%EA%A7%80+%EA%A6%95%EA%A6%B8%EA%A6%A7%EA%A7%80%EA%A6%AD%EA%A6%8F%EA%A7%89/@-7.8870455,109.9168712,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kulon+Progo!3m6!1s0x2e7aee3bf22d9527:0x7c13fe2eab8c4925!8m2!3d-7.7518161!4d110.1230159!15sCh1QYXNhciBUcmFkaXNpb25hbCBLdWxvbiBQcm9nb1ofIh1wYXNhciB0cmFkaXNpb25hbCBrdWxvbiBwcm9nb5IBDnByb2R1Y2VfbWFya2V0mgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJYZDJZek4ydDNSUkFC4AEA-gEECAAQNA!16s%2Fg%2F11c7h9pxvk?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
         <is>
           <t>3 bulan lalu</t>
         </is>
@@ -1007,25 +988,24 @@
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
+      <c r="E16" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F16" t="n">
-        <v>4.7</v>
+        <v>-7.895032</v>
       </c>
       <c r="G16" t="n">
-        <v>-7.895032</v>
-      </c>
-      <c r="H16" t="n">
         <v>110.217207</v>
       </c>
-      <c r="I16" t="b">
-        <v>0</v>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Panjul+Tradisional/@-7.8870455,109.9168712,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kulon+Progo!3m6!1s0x2e7afd9245127871:0xfdce83ca4563c124!8m2!3d-7.8950316!4d110.2172071!15sCh1QYXNhciBUcmFkaXNpb25hbCBLdWxvbiBQcm9nb1ofIh1wYXNhciB0cmFkaXNpb25hbCBrdWxvbiBwcm9nb5IBBm1hcmtldJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSNWRFMWZOakJuUlJBQuABAPoBBAgAEDE!16s%2Fg%2F11h7dbhygq?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J16" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Panjul+Tradisional/@-7.8870455,109.9168712,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kulon+Progo!3m6!1s0x2e7afd9245127871:0xfdce83ca4563c124!8m2!3d-7.8950316!4d110.2172071!15sCh1QYXNhciBUcmFkaXNpb25hbCBLdWxvbiBQcm9nb1ofIh1wYXNhciB0cmFkaXNpb25hbCBrdWxvbiBwcm9nb5IBBm1hcmtldJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSNWRFMWZOakJuUlJBQuABAPoBBAgAEDE!16s%2Fg%2F11h7dbhygq?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
         <is>
           <t>6 bulan lalu</t>
         </is>
@@ -1044,25 +1024,24 @@
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
+      <c r="E17" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F17" t="n">
-        <v>4.4</v>
+        <v>-7.836392</v>
       </c>
       <c r="G17" t="n">
-        <v>-7.836392</v>
-      </c>
-      <c r="H17" t="n">
         <v>110.169649</v>
       </c>
-      <c r="I17" t="b">
-        <v>0</v>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Burung+Pengasih/@-7.8870455,109.9168712,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kulon+Progo!3m6!1s0x2e7afb6dfef4ab91:0x82839e035bb98fce!8m2!3d-7.836392!4d110.1696489!15sCh1QYXNhciBUcmFkaXNpb25hbCBLdWxvbiBQcm9nb1ofIh1wYXNhciB0cmFkaXNpb25hbCBrdWxvbiBwcm9nb5IBBm1hcmtldJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOU2F6WjZZbXQzUlJBQuABAPoBBAgAEEg!16s%2Fg%2F11h5lwclhs?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J17" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Burung+Pengasih/@-7.8870455,109.9168712,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kulon+Progo!3m6!1s0x2e7afb6dfef4ab91:0x82839e035bb98fce!8m2!3d-7.836392!4d110.1696489!15sCh1QYXNhciBUcmFkaXNpb25hbCBLdWxvbiBQcm9nb1ofIh1wYXNhciB0cmFkaXNpb25hbCBrdWxvbiBwcm9nb5IBBm1hcmtldJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOU2F6WjZZbXQzUlJBQuABAPoBBAgAEEg!16s%2Fg%2F11h5lwclhs?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
         <is>
           <t>3 minggu lalu</t>
         </is>
@@ -1081,25 +1060,24 @@
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
+      <c r="E18" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F18" t="n">
-        <v>4.3</v>
+        <v>-7.715775</v>
       </c>
       <c r="G18" t="n">
-        <v>-7.715775</v>
-      </c>
-      <c r="H18" t="n">
         <v>110.226174</v>
       </c>
-      <c r="I18" t="b">
-        <v>0</v>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/PASAR+DEKSO/@-7.8870455,109.9168712,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kulon+Progo!3m6!1s0x2e7af3fc83f6de87:0x829c5697e363b4e2!8m2!3d-7.7157752!4d110.226174!15sCh1QYXNhciBUcmFkaXNpb25hbCBLdWxvbiBQcm9nb1ofIh1wYXNhciB0cmFkaXNpb25hbCBrdWxvbiBwcm9nb5IBBm1hcmtldJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSR2NtRlBjRGQzUlJBQuABAPoBBAgAEEk!16s%2Fg%2F11bwf8vvq6?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J18" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/PASAR+DEKSO/@-7.8870455,109.9168712,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kulon+Progo!3m6!1s0x2e7af3fc83f6de87:0x829c5697e363b4e2!8m2!3d-7.7157752!4d110.226174!15sCh1QYXNhciBUcmFkaXNpb25hbCBLdWxvbiBQcm9nb1ofIh1wYXNhciB0cmFkaXNpb25hbCBrdWxvbiBwcm9nb5IBBm1hcmtldJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSR2NtRlBjRGQzUlJBQuABAPoBBAgAEEk!16s%2Fg%2F11bwf8vvq6?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
         <is>
           <t>3 jam lalu</t>
         </is>
@@ -1118,25 +1096,24 @@
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
+      <c r="E19" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F19" t="n">
-        <v>4.4</v>
+        <v>-7.941859</v>
       </c>
       <c r="G19" t="n">
-        <v>-7.941859</v>
-      </c>
-      <c r="H19" t="n">
         <v>110.20993</v>
       </c>
-      <c r="I19" t="b">
-        <v>0</v>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Sewugalur/@-7.8870455,109.9168712,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kulon+Progo!3m6!1s0x2e7afdb8d45c9051:0x85266115c4cf468f!8m2!3d-7.9418594!4d110.2099302!15sCh1QYXNhciBUcmFkaXNpb25hbCBLdWxvbiBQcm9nb1ofIh1wYXNhciB0cmFkaXNpb25hbCBrdWxvbiBwcm9nb5IBDmZhcm1lcnNfbWFya2V0mgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVJ0ZWs1dFExcFJFQUXgAQD6AQQIABA0!16s%2Fg%2F11g6wz7c04?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J19" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Sewugalur/@-7.8870455,109.9168712,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kulon+Progo!3m6!1s0x2e7afdb8d45c9051:0x85266115c4cf468f!8m2!3d-7.9418594!4d110.2099302!15sCh1QYXNhciBUcmFkaXNpb25hbCBLdWxvbiBQcm9nb1ofIh1wYXNhciB0cmFkaXNpb25hbCBrdWxvbiBwcm9nb5IBDmZhcm1lcnNfbWFya2V0mgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVJ0ZWs1dFExcFJFQUXgAQD6AQQIABA0!16s%2Fg%2F11g6wz7c04?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -1155,25 +1132,24 @@
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
+      <c r="E20" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F20" t="n">
-        <v>4.3</v>
+        <v>-7.771476</v>
       </c>
       <c r="G20" t="n">
-        <v>-7.771476</v>
-      </c>
-      <c r="H20" t="n">
         <v>110.183452</v>
       </c>
-      <c r="I20" t="b">
-        <v>0</v>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Sribit%5B%EA%A6%A5%EA%A6%B1%EA%A6%82%EA%A6%B1%EA%A6%BF%EA%A6%B6%EA%A6%A7%EA%A6%B6%EA%A6%A0%EA%A7%80%5D/@-7.8870455,109.9168712,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kulon+Progo!3m6!1s0x2e7af056e07fdaab:0x7abeee3d0debce33!8m2!3d-7.7714761!4d110.1834518!15sCh1QYXNhciBUcmFkaXNpb25hbCBLdWxvbiBQcm9nb1ofIh1wYXNhciB0cmFkaXNpb25hbCBrdWxvbiBwcm9nb5IBBm1hcmtldJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOTGFHWllaSFpuUlJBQuABAPoBBAgAED0!16s%2Fg%2F11bwh5tz4f?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J20" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Sribit%5B%EA%A6%A5%EA%A6%B1%EA%A6%82%EA%A6%B1%EA%A6%BF%EA%A6%B6%EA%A6%A7%EA%A6%B6%EA%A6%A0%EA%A7%80%5D/@-7.8870455,109.9168712,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kulon+Progo!3m6!1s0x2e7af056e07fdaab:0x7abeee3d0debce33!8m2!3d-7.7714761!4d110.1834518!15sCh1QYXNhciBUcmFkaXNpb25hbCBLdWxvbiBQcm9nb1ofIh1wYXNhciB0cmFkaXNpb25hbCBrdWxvbiBwcm9nb5IBBm1hcmtldJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOTGFHWllaSFpuUlJBQuABAPoBBAgAED0!16s%2Fg%2F11bwh5tz4f?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
         <is>
           <t>2 minggu lalu</t>
         </is>
@@ -1192,25 +1168,24 @@
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
+      <c r="E21" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F21" t="n">
-        <v>4.3</v>
+        <v>-7.887207</v>
       </c>
       <c r="G21" t="n">
-        <v>-7.887207</v>
-      </c>
-      <c r="H21" t="n">
         <v>110.077211</v>
       </c>
-      <c r="I21" t="b">
-        <v>0</v>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Temon/@-7.8870455,109.9168712,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kulon+Progo!3m6!1s0x2e7ae4712f10729d:0x3c4401d8c9bce263!8m2!3d-7.887207!4d110.0772106!15sCh1QYXNhciBUcmFkaXNpb25hbCBLdWxvbiBQcm9nb1ofIh1wYXNhciB0cmFkaXNpb25hbCBrdWxvbiBwcm9nb5IBBm1hcmtldJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOQ0xYQmhiMDVuRUFF4AEA-gEECAAQLw!16s%2Fg%2F11byvvzm8n?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J21" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Temon/@-7.8870455,109.9168712,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kulon+Progo!3m6!1s0x2e7ae4712f10729d:0x3c4401d8c9bce263!8m2!3d-7.887207!4d110.0772106!15sCh1QYXNhciBUcmFkaXNpb25hbCBLdWxvbiBQcm9nb1ofIh1wYXNhciB0cmFkaXNpb25hbCBrdWxvbiBwcm9nb5IBBm1hcmtldJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOQ0xYQmhiMDVuRUFF4AEA-gEECAAQLw!16s%2Fg%2F11byvvzm8n?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
         <is>
           <t>3 bulan lalu</t>
         </is>
@@ -1229,25 +1204,24 @@
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
+      <c r="E22" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F22" t="n">
-        <v>4.3</v>
+        <v>-7.644556</v>
       </c>
       <c r="G22" t="n">
-        <v>-7.644556</v>
-      </c>
-      <c r="H22" t="n">
         <v>110.25235</v>
       </c>
-      <c r="I22" t="b">
-        <v>0</v>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Jagalan/@-7.6445559,109.9639593,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kulon+Progo!3m6!1s0x2e7af4b126b1bac7:0xb97b5a02440fd3ec!8m2!3d-7.6445559!4d110.2523504!15sCh1QYXNhciBUcmFkaXNpb25hbCBLdWxvbiBQcm9nb1ofIh1wYXNhciB0cmFkaXNpb25hbCBrdWxvbiBwcm9nb5IBEnRyYWRpdGlvbmFsX21hcmtldJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOamNqaGlPVE5uUlJBQuABAPoBBAgAEEA!16s%2Fg%2F11byyl85r9?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J22" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Jagalan/@-7.6445559,109.9639593,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kulon+Progo!3m6!1s0x2e7af4b126b1bac7:0xb97b5a02440fd3ec!8m2!3d-7.6445559!4d110.2523504!15sCh1QYXNhciBUcmFkaXNpb25hbCBLdWxvbiBQcm9nb1ofIh1wYXNhciB0cmFkaXNpb25hbCBrdWxvbiBwcm9nb5IBEnRyYWRpdGlvbmFsX21hcmtldJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOamNqaGlPVE5uUlJBQuABAPoBBAgAEEA!16s%2Fg%2F11byyl85r9?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
         <is>
           <t>2 minggu lalu</t>
         </is>
@@ -1266,25 +1240,24 @@
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
+      <c r="E23" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F23" t="n">
-        <v>4.2</v>
+        <v>-7.874905</v>
       </c>
       <c r="G23" t="n">
-        <v>-7.874905</v>
-      </c>
-      <c r="H23" t="n">
         <v>110.110408</v>
       </c>
-      <c r="I23" t="b">
-        <v>0</v>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Cikli/@-7.8749049,109.8220166,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kulon+Progo!3m6!1s0x2e7ae49401cd5631:0x7c12b3cc341b7397!8m2!3d-7.8749049!4d110.1104077!15sCh1QYXNhciBUcmFkaXNpb25hbCBLdWxvbiBQcm9nb1ofIh1wYXNhciB0cmFkaXNpb25hbCBrdWxvbiBwcm9nb5IBEnRyYWRpdGlvbmFsX21hcmtldJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VReU1VNXlhRzFSUlJBQuABAPoBBAgAEEA!16s%2Fg%2F11btt92mwx?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J23" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Cikli/@-7.8749049,109.8220166,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kulon+Progo!3m6!1s0x2e7ae49401cd5631:0x7c12b3cc341b7397!8m2!3d-7.8749049!4d110.1104077!15sCh1QYXNhciBUcmFkaXNpb25hbCBLdWxvbiBQcm9nb1ofIh1wYXNhciB0cmFkaXNpb25hbCBrdWxvbiBwcm9nb5IBEnRyYWRpdGlvbmFsX21hcmtldJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VReU1VNXlhRzFSUlJBQuABAPoBBAgAEEA!16s%2Fg%2F11btt92mwx?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
         <is>
           <t>23 jam lalu</t>
         </is>
@@ -1303,25 +1276,24 @@
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
+      <c r="E24" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F24" t="n">
-        <v>4.3</v>
+        <v>-7.92112</v>
       </c>
       <c r="G24" t="n">
-        <v>-7.92112</v>
-      </c>
-      <c r="H24" t="n">
         <v>110.147619</v>
       </c>
-      <c r="I24" t="b">
-        <v>0</v>
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Pon/@-7.8749049,109.8220166,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kulon+Progo!3m6!1s0x2e7afcd1ea310f13:0x76efa5db067475d1!8m2!3d-7.9211202!4d110.1476191!15sCh1QYXNhciBUcmFkaXNpb25hbCBLdWxvbiBQcm9nb1ofIh1wYXNhciB0cmFkaXNpb25hbCBrdWxvbiBwcm9nb5IBEnRyYWRpdGlvbmFsX21hcmtldJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VNM2REVjVRbkIzUlJBQuABAPoBBAgAEEA!16s%2Fg%2F11c0rqxnx1?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J24" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Pon/@-7.8749049,109.8220166,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kulon+Progo!3m6!1s0x2e7afcd1ea310f13:0x76efa5db067475d1!8m2!3d-7.9211202!4d110.1476191!15sCh1QYXNhciBUcmFkaXNpb25hbCBLdWxvbiBQcm9nb1ofIh1wYXNhciB0cmFkaXNpb25hbCBrdWxvbiBwcm9nb5IBEnRyYWRpdGlvbmFsX21hcmtldJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VNM2REVjVRbkIzUlJBQuABAPoBBAgAEEA!16s%2Fg%2F11c0rqxnx1?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -1340,25 +1312,24 @@
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
+      <c r="E25" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F25" t="n">
-        <v>4.4</v>
+        <v>-7.924186</v>
       </c>
       <c r="G25" t="n">
-        <v>-7.924186</v>
-      </c>
-      <c r="H25" t="n">
         <v>110.195355</v>
       </c>
-      <c r="I25" t="b">
-        <v>0</v>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Legi/@-7.8749049,109.8220166,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kulon+Progo!3m6!1s0x2e7afc53c2d9b5d1:0xa69aa477c8f0e736!8m2!3d-7.9241855!4d110.1953548!15sCh1QYXNhciBUcmFkaXNpb25hbCBLdWxvbiBQcm9nb1ofIh1wYXNhciB0cmFkaXNpb25hbCBrdWxvbiBwcm9nb5IBBm1hcmtldJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOVWJFOTFRa1IzRUFF4AEA-gEECAAQPA!16s%2Fg%2F11cp1s26n3?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J25" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Legi/@-7.8749049,109.8220166,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kulon+Progo!3m6!1s0x2e7afc53c2d9b5d1:0xa69aa477c8f0e736!8m2!3d-7.9241855!4d110.1953548!15sCh1QYXNhciBUcmFkaXNpb25hbCBLdWxvbiBQcm9nb1ofIh1wYXNhciB0cmFkaXNpb25hbCBrdWxvbiBwcm9nb5IBBm1hcmtldJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOVWJFOTFRa1IzRUFF4AEA-gEECAAQPA!16s%2Fg%2F11cp1s26n3?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
         <is>
           <t>6 hari lalu</t>
         </is>
@@ -1377,25 +1348,24 @@
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
+      <c r="E26" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F26" t="n">
-        <v>4.3</v>
+        <v>-7.847338</v>
       </c>
       <c r="G26" t="n">
-        <v>-7.847338</v>
-      </c>
-      <c r="H26" t="n">
         <v>110.218152</v>
       </c>
-      <c r="I26" t="b">
-        <v>0</v>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Redjo+mulyo/@-7.8749049,109.8220166,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kulon+Progo!3m6!1s0x2e7afbcc84beb143:0xea537d65b187d885!8m2!3d-7.8473377!4d110.2181519!15sCh1QYXNhciBUcmFkaXNpb25hbCBLdWxvbiBQcm9nb1ofIh1wYXNhciB0cmFkaXNpb25hbCBrdWxvbiBwcm9nb5IBBm1hcmtldJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VNeWJFeERSVVJSRUFF4AEA-gEECAAQPQ!16s%2Fg%2F11b90k7v1f?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J26" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Redjo+mulyo/@-7.8749049,109.8220166,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kulon+Progo!3m6!1s0x2e7afbcc84beb143:0xea537d65b187d885!8m2!3d-7.8473377!4d110.2181519!15sCh1QYXNhciBUcmFkaXNpb25hbCBLdWxvbiBQcm9nb1ofIh1wYXNhciB0cmFkaXNpb25hbCBrdWxvbiBwcm9nb5IBBm1hcmtldJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VNeWJFeERSVVJSRUFF4AEA-gEECAAQPQ!16s%2Fg%2F11b90k7v1f?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
         <is>
           <t>2 hari lalu</t>
         </is>
@@ -1414,25 +1384,24 @@
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
+      <c r="E27" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F27" t="n">
-        <v>4.3</v>
+        <v>-7.808872</v>
       </c>
       <c r="G27" t="n">
-        <v>-7.808872</v>
-      </c>
-      <c r="H27" t="n">
         <v>110.193034</v>
       </c>
-      <c r="I27" t="b">
-        <v>0</v>
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Mudal+(%EA%A6%A5%EA%A6%B1%EA%A6%82%EA%A6%A9%EA%A6%B8%EA%A6%A2%EA%A6%AD%EA%A7%80)/@-7.8749049,109.8220166,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kulon+Progo!3m6!1s0x2e7afa7eba17cb67:0x6f93583813e24b64!8m2!3d-7.8088721!4d110.193034!15sCh1QYXNhciBUcmFkaXNpb25hbCBLdWxvbiBQcm9nb1ofIh1wYXNhciB0cmFkaXNpb25hbCBrdWxvbiBwcm9nb5IBDnByb2R1Y2VfbWFya2V0mgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU54TVhObFJIcFJSUkFC4AEA-gEECAAQOg!16s%2Fg%2F11cn6c71f_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J27" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Mudal+(%EA%A6%A5%EA%A6%B1%EA%A6%82%EA%A6%A9%EA%A6%B8%EA%A6%A2%EA%A6%AD%EA%A7%80)/@-7.8749049,109.8220166,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kulon+Progo!3m6!1s0x2e7afa7eba17cb67:0x6f93583813e24b64!8m2!3d-7.8088721!4d110.193034!15sCh1QYXNhciBUcmFkaXNpb25hbCBLdWxvbiBQcm9nb1ofIh1wYXNhciB0cmFkaXNpb25hbCBrdWxvbiBwcm9nb5IBDnByb2R1Y2VfbWFya2V0mgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU54TVhObFJIcFJSUkFC4AEA-gEECAAQOg!16s%2Fg%2F11cn6c71f_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
         <is>
           <t>6 jam lalu</t>
         </is>
@@ -1451,25 +1420,24 @@
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
+      <c r="E28" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F28" t="n">
-        <v>4.3</v>
+        <v>-7.841033</v>
       </c>
       <c r="G28" t="n">
-        <v>-7.841033</v>
-      </c>
-      <c r="H28" t="n">
         <v>110.100676</v>
       </c>
-      <c r="I28" t="b">
-        <v>0</v>
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Kokap%5B%EA%A6%A5%EA%A6%B1%EA%A6%82%EA%A6%8F%EA%A6%BA%EA%A6%B4%EA%A6%8F%EA%A6%A5%EA%A7%80%5D/@-7.8749049,109.8220166,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kulon+Progo!3m6!1s0x2e7ae50590c38ee3:0xe7630586c6aa93ed!8m2!3d-7.8410333!4d110.1006762!15sCh1QYXNhciBUcmFkaXNpb25hbCBLdWxvbiBQcm9nb1ofIh1wYXNhciB0cmFkaXNpb25hbCBrdWxvbiBwcm9nb5IBBm1hcmtldJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSUGNGQlhZVlpuRUFF4AEA-gEECAAQKA!16s%2Fg%2F11cllmf4nr?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J28" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Kokap%5B%EA%A6%A5%EA%A6%B1%EA%A6%82%EA%A6%8F%EA%A6%BA%EA%A6%B4%EA%A6%8F%EA%A6%A5%EA%A7%80%5D/@-7.8749049,109.8220166,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kulon+Progo!3m6!1s0x2e7ae50590c38ee3:0xe7630586c6aa93ed!8m2!3d-7.8410333!4d110.1006762!15sCh1QYXNhciBUcmFkaXNpb25hbCBLdWxvbiBQcm9nb1ofIh1wYXNhciB0cmFkaXNpb25hbCBrdWxvbiBwcm9nb5IBBm1hcmtldJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSUGNGQlhZVlpuRUFF4AEA-gEECAAQKA!16s%2Fg%2F11cllmf4nr?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
         <is>
           <t>3 minggu lalu</t>
         </is>
@@ -1488,25 +1456,24 @@
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr"/>
+      <c r="E29" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F29" t="n">
-        <v>4.3</v>
+        <v>-7.669144</v>
       </c>
       <c r="G29" t="n">
-        <v>-7.669144</v>
-      </c>
-      <c r="H29" t="n">
         <v>110.165358</v>
       </c>
-      <c r="I29" t="b">
-        <v>0</v>
+      <c r="H29" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Samigaluh/@-7.8749049,109.8220166,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kulon+Progo!3m6!1s0x2e7af2ecdc85d58f:0x84fd39cb007bd314!8m2!3d-7.6691441!4d110.1653575!15sCh1QYXNhciBUcmFkaXNpb25hbCBLdWxvbiBQcm9nb1ofIh1wYXNhciB0cmFkaXNpb25hbCBrdWxvbiBwcm9nb5IBBm1hcmtldJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VRMmQwbDJTRWQzRUFF4AEA-gEECAAQNA!16s%2Fg%2F11ckvdz2qj?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J29" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Samigaluh/@-7.8749049,109.8220166,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kulon+Progo!3m6!1s0x2e7af2ecdc85d58f:0x84fd39cb007bd314!8m2!3d-7.6691441!4d110.1653575!15sCh1QYXNhciBUcmFkaXNpb25hbCBLdWxvbiBQcm9nb1ofIh1wYXNhciB0cmFkaXNpb25hbCBrdWxvbiBwcm9nb5IBBm1hcmtldJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VRMmQwbDJTRWQzRUFF4AEA-gEECAAQNA!16s%2Fg%2F11ckvdz2qj?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -1529,25 +1496,24 @@
         </is>
       </c>
       <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
+      <c r="E30" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F30" t="n">
-        <v>4.3</v>
+        <v>-7.758989</v>
       </c>
       <c r="G30" t="n">
-        <v>-7.758989</v>
-      </c>
-      <c r="H30" t="n">
         <v>110.195939</v>
       </c>
-      <c r="I30" t="b">
-        <v>0</v>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Kuliner+Tradisional+Mbandul+Mulya/@-7.8749049,109.8220166,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kulon+Progo!3m6!1s0x2e7af106c68f5259:0x9bedc7282b964a66!8m2!3d-7.7589886!4d110.1959386!15sCh1QYXNhciBUcmFkaXNpb25hbCBLdWxvbiBQcm9nb1ofIh1wYXNhciB0cmFkaXNpb25hbCBrdWxvbiBwcm9nb5IBDmZhcm1lcnNfbWFya2V0mgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU53Y3pkcFh6SkJSUkFC4AEA-gEECAAQQg!16s%2Fg%2F11j33kj94f?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J30" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Kuliner+Tradisional+Mbandul+Mulya/@-7.8749049,109.8220166,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kulon+Progo!3m6!1s0x2e7af106c68f5259:0x9bedc7282b964a66!8m2!3d-7.7589886!4d110.1959386!15sCh1QYXNhciBUcmFkaXNpb25hbCBLdWxvbiBQcm9nb1ofIh1wYXNhciB0cmFkaXNpb25hbCBrdWxvbiBwcm9nb5IBDmZhcm1lcnNfbWFya2V0mgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU53Y3pkcFh6SkJSUkFC4AEA-gEECAAQQg!16s%2Fg%2F11j33kj94f?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -1566,25 +1532,24 @@
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr"/>
+      <c r="E31" t="n">
+        <v>4</v>
+      </c>
       <c r="F31" t="n">
-        <v>4</v>
+        <v>-7.68055</v>
       </c>
       <c r="G31" t="n">
-        <v>-7.68055</v>
-      </c>
-      <c r="H31" t="n">
         <v>110.260043</v>
       </c>
-      <c r="I31" t="b">
-        <v>0</v>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Bogo/@-7.68055,109.971652,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kulon+Progo!3m6!1s0x2e7af45e2d160c27:0x5d9b1f0db5d378b1!8m2!3d-7.68055!4d110.2600431!15sCh1QYXNhciBUcmFkaXNpb25hbCBLdWxvbiBQcm9nb1ofIh1wYXNhciB0cmFkaXNpb25hbCBrdWxvbiBwcm9nb5IBBm1hcmtldJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSdE5HRmZWM2hSUlJBQuABAPoBBAgAEEg!16s%2Fg%2F11cnzb6qyw?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J31" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Bogo/@-7.68055,109.971652,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kulon+Progo!3m6!1s0x2e7af45e2d160c27:0x5d9b1f0db5d378b1!8m2!3d-7.68055!4d110.2600431!15sCh1QYXNhciBUcmFkaXNpb25hbCBLdWxvbiBQcm9nb1ofIh1wYXNhciB0cmFkaXNpb25hbCBrdWxvbiBwcm9nb5IBBm1hcmtldJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSdE5HRmZWM2hSUlJBQuABAPoBBAgAEEg!16s%2Fg%2F11cnzb6qyw?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
         <is>
           <t>4 minggu lalu</t>
         </is>
@@ -1603,25 +1568,24 @@
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr"/>
+      <c r="E32" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F32" t="n">
-        <v>4.3</v>
+        <v>-7.799892</v>
       </c>
       <c r="G32" t="n">
-        <v>-7.799892</v>
-      </c>
-      <c r="H32" t="n">
         <v>110.185756</v>
       </c>
-      <c r="I32" t="b">
-        <v>0</v>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Gunung+Gamping/@-7.68055,109.971652,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kulon+Progo!3m6!1s0x2e7af07e7773de95:0x3eecba53d394abfa!8m2!3d-7.7998921!4d110.1857564!15sCh1QYXNhciBUcmFkaXNpb25hbCBLdWxvbiBQcm9nb1ofIh1wYXNhciB0cmFkaXNpb25hbCBrdWxvbiBwcm9nb5IBBm1hcmtldJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSaWExOU1TblJSUlJBQuABAPoBBAgAEBI!16s%2Fg%2F11b7xz0w31?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J32" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Gunung+Gamping/@-7.68055,109.971652,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kulon+Progo!3m6!1s0x2e7af07e7773de95:0x3eecba53d394abfa!8m2!3d-7.7998921!4d110.1857564!15sCh1QYXNhciBUcmFkaXNpb25hbCBLdWxvbiBQcm9nb1ofIh1wYXNhciB0cmFkaXNpb25hbCBrdWxvbiBwcm9nb5IBBm1hcmtldJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSaWExOU1TblJSUlJBQuABAPoBBAgAEBI!16s%2Fg%2F11b7xz0w31?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
         <is>
           <t>5 bulan lalu</t>
         </is>
@@ -1640,25 +1604,24 @@
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr"/>
+      <c r="E33" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F33" t="n">
-        <v>4.3</v>
+        <v>-7.790248</v>
       </c>
       <c r="G33" t="n">
-        <v>-7.790248</v>
-      </c>
-      <c r="H33" t="n">
         <v>110.209181</v>
       </c>
-      <c r="I33" t="b">
-        <v>0</v>
+      <c r="H33" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Krambilan+%EA%A7%8B%EA%A6%A5%EA%A6%B1%EA%A6%82%EA%A6%8F%EA%A6%BF%EA%A6%A9%EA%A7%80%EA%A6%A7%EA%A6%B6%EA%A6%AD%EA%A6%A4%EA%A7%80/@-7.68055,109.971652,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kulon+Progo!3m6!1s0x2e7af0964fd9483d:0x8c6bfc1fadf68a33!8m2!3d-7.7902481!4d110.2091806!15sCh1QYXNhciBUcmFkaXNpb25hbCBLdWxvbiBQcm9nb1ofIh1wYXNhciB0cmFkaXNpb25hbCBrdWxvbiBwcm9nb5IBDnByb2R1Y2VfbWFya2V0mgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVE1TUc4MlVGQjNFQUXgAQD6AQQIABBH!16s%2Fg%2F11c6c99kwl?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J33" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Krambilan+%EA%A7%8B%EA%A6%A5%EA%A6%B1%EA%A6%82%EA%A6%8F%EA%A6%BF%EA%A6%A9%EA%A7%80%EA%A6%A7%EA%A6%B6%EA%A6%AD%EA%A6%A4%EA%A7%80/@-7.68055,109.971652,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kulon+Progo!3m6!1s0x2e7af0964fd9483d:0x8c6bfc1fadf68a33!8m2!3d-7.7902481!4d110.2091806!15sCh1QYXNhciBUcmFkaXNpb25hbCBLdWxvbiBQcm9nb1ofIh1wYXNhciB0cmFkaXNpb25hbCBrdWxvbiBwcm9nb5IBDnByb2R1Y2VfbWFya2V0mgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVE1TUc4MlVGQjNFQUXgAQD6AQQIABBH!16s%2Fg%2F11c6c99kwl?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -1677,25 +1640,24 @@
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr"/>
+      <c r="E34" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F34" t="n">
-        <v>4.2</v>
+        <v>-7.810965</v>
       </c>
       <c r="G34" t="n">
-        <v>-7.810965</v>
-      </c>
-      <c r="H34" t="n">
         <v>110.104437</v>
       </c>
-      <c r="I34" t="b">
-        <v>0</v>
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Nguri/@-7.8109648,109.8160459,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kulon+Progo!3m6!1s0x2e7ae57d2cd37975:0xbed771bd253e1191!8m2!3d-7.8109648!4d110.104437!15sCh1QYXNhciBUcmFkaXNpb25hbCBLdWxvbiBQcm9nb1ofIh1wYXNhciB0cmFkaXNpb25hbCBrdWxvbiBwcm9nb5IBBm1hcmtldJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSeE1TMVhURVZuRUFF4AEA-gEECAAQGw!16s%2Fg%2F11cjj458sz?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J34" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Nguri/@-7.8109648,109.8160459,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kulon+Progo!3m6!1s0x2e7ae57d2cd37975:0xbed771bd253e1191!8m2!3d-7.8109648!4d110.104437!15sCh1QYXNhciBUcmFkaXNpb25hbCBLdWxvbiBQcm9nb1ofIh1wYXNhciB0cmFkaXNpb25hbCBrdWxvbiBwcm9nb5IBBm1hcmtldJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSeE1TMVhURVZuRUFF4AEA-gEECAAQGw!16s%2Fg%2F11cjj458sz?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
         <is>
           <t>5 bulan lalu</t>
         </is>
@@ -1714,25 +1676,24 @@
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr"/>
+      <c r="E35" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F35" t="n">
-        <v>4.7</v>
+        <v>-7.855035</v>
       </c>
       <c r="G35" t="n">
-        <v>-7.855035</v>
-      </c>
-      <c r="H35" t="n">
         <v>110.225699</v>
       </c>
-      <c r="I35" t="b">
-        <v>0</v>
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Pogog/@-7.8109648,109.8160459,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kulon+Progo!3m6!1s0x2e7afb8fca3c620d:0x329f8ee5383cff9!8m2!3d-7.8550349!4d110.2256985!15sCh1QYXNhciBUcmFkaXNpb25hbCBLdWxvbiBQcm9nb1ofIh1wYXNhciB0cmFkaXNpb25hbCBrdWxvbiBwcm9nb5IBEnRyYWRpdGlvbmFsX21hcmtldJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VORWJIVjJlV3RSUlJBQuABAPoBBQiPARAY!16s%2Fg%2F11jns17nm7?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J35" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Pogog/@-7.8109648,109.8160459,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kulon+Progo!3m6!1s0x2e7afb8fca3c620d:0x329f8ee5383cff9!8m2!3d-7.8550349!4d110.2256985!15sCh1QYXNhciBUcmFkaXNpb25hbCBLdWxvbiBQcm9nb1ofIh1wYXNhciB0cmFkaXNpb25hbCBrdWxvbiBwcm9nb5IBEnRyYWRpdGlvbmFsX21hcmtldJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VORWJIVjJlV3RSUlJBQuABAPoBBQiPARAY!16s%2Fg%2F11jns17nm7?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
         <is>
           <t>8 bulan lalu</t>
         </is>
@@ -1751,25 +1712,24 @@
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr"/>
+      <c r="E36" t="n">
+        <v>4.1</v>
+      </c>
       <c r="F36" t="n">
-        <v>4.1</v>
+        <v>-7.872432</v>
       </c>
       <c r="G36" t="n">
-        <v>-7.872432</v>
-      </c>
-      <c r="H36" t="n">
         <v>110.075769</v>
       </c>
-      <c r="I36" t="b">
-        <v>0</v>
+      <c r="H36" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Kaligondang/@-7.8109648,109.8160459,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kulon+Progo!3m6!1s0x2e7ae469e237eef5:0x83fce4c6ac46dae5!8m2!3d-7.8724317!4d110.0757693!15sCh1QYXNhciBUcmFkaXNpb25hbCBLdWxvbiBQcm9nb1ofIh1wYXNhciB0cmFkaXNpb25hbCBrdWxvbiBwcm9nb5IBBm1hcmtldJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSRWNHUnVaRFpSUlJBQuABAPoBBAgAED4!16s%2Fg%2F11clvqb_kg?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J36" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Kaligondang/@-7.8109648,109.8160459,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kulon+Progo!3m6!1s0x2e7ae469e237eef5:0x83fce4c6ac46dae5!8m2!3d-7.8724317!4d110.0757693!15sCh1QYXNhciBUcmFkaXNpb25hbCBLdWxvbiBQcm9nb1ofIh1wYXNhciB0cmFkaXNpb25hbCBrdWxvbiBwcm9nb5IBBm1hcmtldJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSRWNHUnVaRFpSUlJBQuABAPoBBAgAED4!16s%2Fg%2F11clvqb_kg?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -1788,25 +1748,24 @@
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr"/>
+      <c r="E37" t="n">
+        <v>5</v>
+      </c>
       <c r="F37" t="n">
-        <v>5</v>
+        <v>-7.902377</v>
       </c>
       <c r="G37" t="n">
-        <v>-7.902377</v>
-      </c>
-      <c r="H37" t="n">
         <v>110.168152</v>
       </c>
-      <c r="I37" t="b">
-        <v>0</v>
+      <c r="H37" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Panjatan/@-7.8109648,109.8160459,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kulon+Progo!3m6!1s0x2e7afd47fce4ed83:0x6ec266134f910de1!8m2!3d-7.9023769!4d110.1681522!15sCh1QYXNhciBUcmFkaXNpb25hbCBLdWxvbiBQcm9nb5IBBm1hcmtldOABAA!16s%2Fg%2F11sc2_c3wf?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J37" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Panjatan/@-7.8109648,109.8160459,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kulon+Progo!3m6!1s0x2e7afd47fce4ed83:0x6ec266134f910de1!8m2!3d-7.9023769!4d110.1681522!15sCh1QYXNhciBUcmFkaXNpb25hbCBLdWxvbiBQcm9nb5IBBm1hcmtldOABAA!16s%2Fg%2F11sc2_c3wf?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
         <is>
           <t>3 bulan lalu</t>
         </is>
@@ -1825,25 +1784,24 @@
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr"/>
+      <c r="E38" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F38" t="n">
-        <v>4.3</v>
+        <v>-7.669379</v>
       </c>
       <c r="G38" t="n">
-        <v>-7.669379</v>
-      </c>
-      <c r="H38" t="n">
         <v>110.143018</v>
       </c>
-      <c r="I38" t="b">
-        <v>0</v>
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Perempatan+Plono/@-7.8109648,109.8160459,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kulon+Progo!3m6!1s0x2e7af29d2ac00db9:0x1502d74422ff1ec9!8m2!3d-7.669379!4d110.1430182!15sCh1QYXNhciBUcmFkaXNpb25hbCBLdWxvbiBQcm9nb1ofIh1wYXNhciB0cmFkaXNpb25hbCBrdWxvbiBwcm9nb5IBEnRyYWRpdGlvbmFsX21hcmtldJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VNeWJEZHhMVzlCUlJBQuABAPoBBQiUARA-!16s%2Fg%2F11bwpr0ss3?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J38" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Perempatan+Plono/@-7.8109648,109.8160459,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kulon+Progo!3m6!1s0x2e7af29d2ac00db9:0x1502d74422ff1ec9!8m2!3d-7.669379!4d110.1430182!15sCh1QYXNhciBUcmFkaXNpb25hbCBLdWxvbiBQcm9nb1ofIh1wYXNhciB0cmFkaXNpb25hbCBrdWxvbiBwcm9nb5IBEnRyYWRpdGlvbmFsX21hcmtldJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VNeWJEZHhMVzlCUlJBQuABAPoBBQiUARA-!16s%2Fg%2F11bwpr0ss3?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
         <is>
           <t>6 bulan lalu</t>
         </is>
@@ -1862,25 +1820,24 @@
       </c>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr"/>
+      <c r="E39" t="n">
+        <v>4</v>
+      </c>
       <c r="F39" t="n">
-        <v>4</v>
+        <v>-7.858853</v>
       </c>
       <c r="G39" t="n">
-        <v>-7.858853</v>
-      </c>
-      <c r="H39" t="n">
         <v>110.231977</v>
       </c>
-      <c r="I39" t="b">
-        <v>0</v>
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Ngangruk+Dhisil/@-7.8109648,109.8160459,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kulon+Progo!3m6!1s0x2e7afbd92fbabf51:0xc17996c69b012632!8m2!3d-7.8588529!4d110.2319767!15sCh1QYXNhciBUcmFkaXNpb25hbCBLdWxvbiBQcm9nb1ofIh1wYXNhciB0cmFkaXNpb25hbCBrdWxvbiBwcm9nb5IBBm1hcmtldJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOMWNDMDNYMnhSUlJBQuABAPoBBAgAEDg!16s%2Fg%2F11bw2j_pd6?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J39" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Ngangruk+Dhisil/@-7.8109648,109.8160459,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kulon+Progo!3m6!1s0x2e7afbd92fbabf51:0xc17996c69b012632!8m2!3d-7.8588529!4d110.2319767!15sCh1QYXNhciBUcmFkaXNpb25hbCBLdWxvbiBQcm9nb1ofIh1wYXNhciB0cmFkaXNpb25hbCBrdWxvbiBwcm9nb5IBBm1hcmtldJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOMWNDMDNYMnhSUlJBQuABAPoBBAgAEDg!16s%2Fg%2F11bw2j_pd6?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -1899,25 +1856,24 @@
       </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr"/>
+      <c r="E40" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F40" t="n">
-        <v>4.3</v>
+        <v>-7.933293</v>
       </c>
       <c r="G40" t="n">
-        <v>-7.933293</v>
-      </c>
-      <c r="H40" t="n">
         <v>110.263651</v>
       </c>
-      <c r="I40" t="b">
-        <v>0</v>
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Mangiran/@-7.9332931,109.9752597,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kulon+Progo!3m6!1s0x2e7afe5bab4844e1:0x8aa282795d01e098!8m2!3d-7.9332931!4d110.2636508!15sCh1QYXNhciBUcmFkaXNpb25hbCBLdWxvbiBQcm9nb1ofIh1wYXNhciB0cmFkaXNpb25hbCBrdWxvbiBwcm9nb5IBEnRyYWRpdGlvbmFsX21hcmtldJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOeFozUk1kVGxuUlJBQuABAPoBBAgAEDg!16s%2Fg%2F11bvt9rxry?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J40" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Mangiran/@-7.9332931,109.9752597,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kulon+Progo!3m6!1s0x2e7afe5bab4844e1:0x8aa282795d01e098!8m2!3d-7.9332931!4d110.2636508!15sCh1QYXNhciBUcmFkaXNpb25hbCBLdWxvbiBQcm9nb1ofIh1wYXNhciB0cmFkaXNpb25hbCBrdWxvbiBwcm9nb5IBEnRyYWRpdGlvbmFsX21hcmtldJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOeFozUk1kVGxuUlJBQuABAPoBBAgAEDg!16s%2Fg%2F11bvt9rxry?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr">
         <is>
           <t>2 hari lalu</t>
         </is>
@@ -1936,25 +1892,24 @@
       </c>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr"/>
+      <c r="E41" t="n">
+        <v>4.1</v>
+      </c>
       <c r="F41" t="n">
-        <v>4.1</v>
+        <v>-7.752458</v>
       </c>
       <c r="G41" t="n">
-        <v>-7.752458</v>
-      </c>
-      <c r="H41" t="n">
         <v>110.227681</v>
       </c>
-      <c r="I41" t="b">
-        <v>0</v>
+      <c r="H41" t="b">
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Sembuhan/@-7.9332931,109.9752597,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kulon+Progo!3m6!1s0x2e7af12e396e50cd:0xbc5730e5c74905fc!8m2!3d-7.7524585!4d110.2276811!15sCh1QYXNhciBUcmFkaXNpb25hbCBLdWxvbiBQcm9nb1ofIh1wYXNhciB0cmFkaXNpb25hbCBrdWxvbiBwcm9nb5IBEnRyYWRpdGlvbmFsX21hcmtldJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VReU1qZERlVmRuRUFF4AEA-gEECAAQKA!16s%2Fg%2F11c3287p_j?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J41" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Sembuhan/@-7.9332931,109.9752597,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kulon+Progo!3m6!1s0x2e7af12e396e50cd:0xbc5730e5c74905fc!8m2!3d-7.7524585!4d110.2276811!15sCh1QYXNhciBUcmFkaXNpb25hbCBLdWxvbiBQcm9nb1ofIh1wYXNhciB0cmFkaXNpb25hbCBrdWxvbiBwcm9nb5IBEnRyYWRpdGlvbmFsX21hcmtldJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VReU1qZERlVmRuRUFF4AEA-gEECAAQKA!16s%2Fg%2F11c3287p_j?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -1973,25 +1928,24 @@
       </c>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr"/>
+      <c r="E42" t="n">
+        <v>4.1</v>
+      </c>
       <c r="F42" t="n">
-        <v>4.1</v>
+        <v>-7.697485</v>
       </c>
       <c r="G42" t="n">
-        <v>-7.697485</v>
-      </c>
-      <c r="H42" t="n">
         <v>110.14971</v>
       </c>
-      <c r="I42" t="b">
-        <v>0</v>
+      <c r="H42" t="b">
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Bendo+Waru+X/@-7.6974847,109.8613192,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kulon+Progo!3m6!1s0x2e7af271976f8915:0x751f1d7997eee68d!8m2!3d-7.6974847!4d110.1497103!15sCh1QYXNhciBUcmFkaXNpb25hbCBLdWxvbiBQcm9nb1ofIh1wYXNhciB0cmFkaXNpb25hbCBrdWxvbiBwcm9nb5IBDmZhcm1lcnNfbWFya2V0mgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU5TYTJWdVZIVkJSUkFC4AEA-gEECAAQHg!16s%2Fg%2F11cp16xstr?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J42" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Bendo+Waru+X/@-7.6974847,109.8613192,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kulon+Progo!3m6!1s0x2e7af271976f8915:0x751f1d7997eee68d!8m2!3d-7.6974847!4d110.1497103!15sCh1QYXNhciBUcmFkaXNpb25hbCBLdWxvbiBQcm9nb1ofIh1wYXNhciB0cmFkaXNpb25hbCBrdWxvbiBwcm9nb5IBDmZhcm1lcnNfbWFya2V0mgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU5TYTJWdVZIVkJSUkFC4AEA-gEECAAQHg!16s%2Fg%2F11cp16xstr?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -2010,25 +1964,24 @@
       </c>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr"/>
+      <c r="E43" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F43" t="n">
-        <v>4.7</v>
+        <v>-7.710165</v>
       </c>
       <c r="G43" t="n">
-        <v>-7.710165</v>
-      </c>
-      <c r="H43" t="n">
         <v>110.208869</v>
       </c>
-      <c r="I43" t="b">
-        <v>0</v>
+      <c r="H43" t="b">
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Timbunan+(%EA%A6%A5%EA%A6%B1%EA%A6%82%EA%A6%A0%EA%A6%B6%EA%A6%A9%EA%A7%80%EA%A6%A7%EA%A6%B8%EA%A6%A4%EA%A6%A4%EA%A7%80)/@-7.6974847,109.8613192,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kulon+Progo!3m6!1s0x2e7af3c2df3e3f11:0x80f7261f1352291c!8m2!3d-7.710165!4d110.2088685!15sCh1QYXNhciBUcmFkaXNpb25hbCBLdWxvbiBQcm9nb1ofIh1wYXNhciB0cmFkaXNpb25hbCBrdWxvbiBwcm9nb5IBDnByb2R1Y2VfbWFya2V0mgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU50YmpsNlprbFJFQUXgAQD6AQQIABAg!16s%2Fg%2F11fz2q_r19?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J43" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Timbunan+(%EA%A6%A5%EA%A6%B1%EA%A6%82%EA%A6%A0%EA%A6%B6%EA%A6%A9%EA%A7%80%EA%A6%A7%EA%A6%B8%EA%A6%A4%EA%A6%A4%EA%A7%80)/@-7.6974847,109.8613192,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kulon+Progo!3m6!1s0x2e7af3c2df3e3f11:0x80f7261f1352291c!8m2!3d-7.710165!4d110.2088685!15sCh1QYXNhciBUcmFkaXNpb25hbCBLdWxvbiBQcm9nb1ofIh1wYXNhciB0cmFkaXNpb25hbCBrdWxvbiBwcm9nb5IBDnByb2R1Y2VfbWFya2V0mgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU50YmpsNlprbFJFQUXgAQD6AQQIABAg!16s%2Fg%2F11fz2q_r19?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr">
         <is>
           <t>2 minggu lalu</t>
         </is>
@@ -2047,25 +2000,24 @@
       </c>
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr"/>
+      <c r="E44" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F44" t="n">
-        <v>4.2</v>
+        <v>-7.832227</v>
       </c>
       <c r="G44" t="n">
-        <v>-7.832227</v>
-      </c>
-      <c r="H44" t="n">
         <v>110.113949</v>
       </c>
-      <c r="I44" t="b">
-        <v>0</v>
+      <c r="H44" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Klepu/@-7.6974847,109.8613192,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kulon+Progo!3m6!1s0x2e7ae515ae58c6e9:0x2f045ed5c26fe512!8m2!3d-7.8322274!4d110.1139494!15sCh1QYXNhciBUcmFkaXNpb25hbCBLdWxvbiBQcm9nb1ofIh1wYXNhciB0cmFkaXNpb25hbCBrdWxvbiBwcm9nb5IBBm1hcmtldJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSUGJtTlBRVnAzRUFF4AEA-gEECAAQJg!16s%2Fg%2F11d_tn265s?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J44" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Klepu/@-7.6974847,109.8613192,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kulon+Progo!3m6!1s0x2e7ae515ae58c6e9:0x2f045ed5c26fe512!8m2!3d-7.8322274!4d110.1139494!15sCh1QYXNhciBUcmFkaXNpb25hbCBLdWxvbiBQcm9nb1ofIh1wYXNhciB0cmFkaXNpb25hbCBrdWxvbiBwcm9nb5IBBm1hcmtldJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSUGJtTlBRVnAzRUFF4AEA-gEECAAQJg!16s%2Fg%2F11d_tn265s?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr">
         <is>
           <t>4 bulan lalu</t>
         </is>
@@ -2084,25 +2036,24 @@
       </c>
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr"/>
+      <c r="E45" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F45" t="n">
-        <v>4.4</v>
+        <v>-7.94924</v>
       </c>
       <c r="G45" t="n">
-        <v>-7.94924</v>
-      </c>
-      <c r="H45" t="n">
         <v>110.22139</v>
       </c>
-      <c r="I45" t="b">
-        <v>0</v>
+      <c r="H45" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Kliwon%2FKranggan/@-7.9492397,109.9329988,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kulon+Progo!3m6!1s0x2e7afde895555555:0xc9460e059788f906!8m2!3d-7.9492397!4d110.2213899!15sCh1QYXNhciBUcmFkaXNpb25hbCBLdWxvbiBQcm9nb1ofIh1wYXNhciB0cmFkaXNpb25hbCBrdWxvbiBwcm9nb5IBDnByb2R1Y2VfbWFya2V0mgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVJvYURsdE5GSm5FQUXgAQD6AQQIABA0!16s%2Fg%2F11b6c9v6lx?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J45" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Kliwon%2FKranggan/@-7.9492397,109.9329988,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kulon+Progo!3m6!1s0x2e7afde895555555:0xc9460e059788f906!8m2!3d-7.9492397!4d110.2213899!15sCh1QYXNhciBUcmFkaXNpb25hbCBLdWxvbiBQcm9nb1ofIh1wYXNhciB0cmFkaXNpb25hbCBrdWxvbiBwcm9nb5IBDnByb2R1Y2VfbWFya2V0mgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVJvYURsdE5GSm5FQUXgAQD6AQQIABA0!16s%2Fg%2F11b6c9v6lx?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr">
         <is>
           <t>3 minggu lalu</t>
         </is>
@@ -2121,25 +2072,24 @@
       </c>
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr"/>
-      <c r="E46" t="inlineStr"/>
+      <c r="E46" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F46" t="n">
-        <v>4.3</v>
+        <v>-7.795798</v>
       </c>
       <c r="G46" t="n">
-        <v>-7.795798</v>
-      </c>
-      <c r="H46" t="n">
         <v>110.114227</v>
       </c>
-      <c r="I46" t="b">
-        <v>0</v>
+      <c r="H46" t="b">
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Magangan/@-7.9492397,109.9329988,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kulon+Progo!3m6!1s0x2e7aef92e2d67ca9:0x80756b168dbd14b4!8m2!3d-7.7957981!4d110.1142274!15sCh1QYXNhciBUcmFkaXNpb25hbCBLdWxvbiBQcm9nb1ofIh1wYXNhciB0cmFkaXNpb25hbCBrdWxvbiBwcm9nb5IBBm1hcmtldJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VRMmFVeHBSVkJuRUFF4AEA-gEECAAQGw!16s%2Fg%2F11fxb1lsd5?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J46" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Magangan/@-7.9492397,109.9329988,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kulon+Progo!3m6!1s0x2e7aef92e2d67ca9:0x80756b168dbd14b4!8m2!3d-7.7957981!4d110.1142274!15sCh1QYXNhciBUcmFkaXNpb25hbCBLdWxvbiBQcm9nb1ofIh1wYXNhciB0cmFkaXNpb25hbCBrdWxvbiBwcm9nb5IBBm1hcmtldJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VRMmFVeHBSVkJuRUFF4AEA-gEECAAQGw!16s%2Fg%2F11fxb1lsd5?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr">
         <is>
           <t>6 hari lalu</t>
         </is>
@@ -2158,25 +2108,24 @@
       </c>
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr"/>
+      <c r="E47" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F47" t="n">
-        <v>4.4</v>
+        <v>-7.838496</v>
       </c>
       <c r="G47" t="n">
-        <v>-7.838496</v>
-      </c>
-      <c r="H47" t="n">
         <v>110.170107</v>
       </c>
-      <c r="I47" t="b">
-        <v>0</v>
+      <c r="H47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Hewan+Pengasih/@-7.9492397,109.9329988,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kulon+Progo!3m6!1s0x2e7afae5d56da19f:0xedc04eb36c9e33ff!8m2!3d-7.8384965!4d110.1701073!15sCh1QYXNhciBUcmFkaXNpb25hbCBLdWxvbiBQcm9nb1ofIh1wYXNhciB0cmFkaXNpb25hbCBrdWxvbiBwcm9nb5IBBm1hcmtldJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VReWVrbFVZVVJCRUFF4AEA-gEECAAQNw!16s%2Fg%2F11gdy53cy3?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J47" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Hewan+Pengasih/@-7.9492397,109.9329988,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kulon+Progo!3m6!1s0x2e7afae5d56da19f:0xedc04eb36c9e33ff!8m2!3d-7.8384965!4d110.1701073!15sCh1QYXNhciBUcmFkaXNpb25hbCBLdWxvbiBQcm9nb1ofIh1wYXNhciB0cmFkaXNpb25hbCBrdWxvbiBwcm9nb5IBBm1hcmtldJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VReWVrbFVZVVJCRUFF4AEA-gEECAAQNw!16s%2Fg%2F11gdy53cy3?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr">
         <is>
           <t>3 minggu lalu</t>
         </is>
@@ -2195,25 +2144,24 @@
       </c>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr"/>
+      <c r="E48" t="n">
+        <v>3.9</v>
+      </c>
       <c r="F48" t="n">
-        <v>3.9</v>
+        <v>-7.898086</v>
       </c>
       <c r="G48" t="n">
-        <v>-7.898086</v>
-      </c>
-      <c r="H48" t="n">
         <v>110.190683</v>
       </c>
-      <c r="I48" t="b">
-        <v>0</v>
+      <c r="H48" t="b">
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Krembangan/@-7.9492397,109.9329988,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kulon+Progo!3m6!1s0x2e7afc861e8e7aa7:0x40615ff93de8672!8m2!3d-7.8980859!4d110.1906828!15sCh1QYXNhciBUcmFkaXNpb25hbCBLdWxvbiBQcm9nb1ofIh1wYXNhciB0cmFkaXNpb25hbCBrdWxvbiBwcm9nb5IBBm1hcmtldJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSSk1pMWZUMVZCRUFF4AEA-gEECAAQNA!16s%2Fg%2F11c0t93pvg?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J48" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Krembangan/@-7.9492397,109.9329988,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kulon+Progo!3m6!1s0x2e7afc861e8e7aa7:0x40615ff93de8672!8m2!3d-7.8980859!4d110.1906828!15sCh1QYXNhciBUcmFkaXNpb25hbCBLdWxvbiBQcm9nb1ofIh1wYXNhciB0cmFkaXNpb25hbCBrdWxvbiBwcm9nb5IBBm1hcmtldJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSSk1pMWZUMVZCRUFF4AEA-gEECAAQNA!16s%2Fg%2F11c0t93pvg?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr">
         <is>
           <t>11 bulan lalu</t>
         </is>
@@ -2232,25 +2180,24 @@
       </c>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr"/>
+      <c r="E49" t="n">
+        <v>4</v>
+      </c>
       <c r="F49" t="n">
-        <v>4</v>
+        <v>-7.679064</v>
       </c>
       <c r="G49" t="n">
-        <v>-7.679064</v>
-      </c>
-      <c r="H49" t="n">
         <v>110.254275</v>
       </c>
-      <c r="I49" t="b">
-        <v>0</v>
+      <c r="H49" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Demangan/@-7.6790642,109.9658842,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kulon+Progo!3m6!1s0x2e7af461f109d0b1:0xa9aeb60476b181fb!8m2!3d-7.6790642!4d110.2542753!15sCh1QYXNhciBUcmFkaXNpb25hbCBLdWxvbiBQcm9nb1ofIh1wYXNhciB0cmFkaXNpb25hbCBrdWxvbiBwcm9nb5IBDnByb2R1Y2VfbWFya2V0mgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU5ZTW5CTGJWcFJFQUXgAQD6AQQIABBF!16s%2Fg%2F11f2dr0p9j?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J49" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Demangan/@-7.6790642,109.9658842,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kulon+Progo!3m6!1s0x2e7af461f109d0b1:0xa9aeb60476b181fb!8m2!3d-7.6790642!4d110.2542753!15sCh1QYXNhciBUcmFkaXNpb25hbCBLdWxvbiBQcm9nb1ofIh1wYXNhciB0cmFkaXNpb25hbCBrdWxvbiBwcm9nb5IBDnByb2R1Y2VfbWFya2V0mgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU5ZTW5CTGJWcFJFQUXgAQD6AQQIABBF!16s%2Fg%2F11f2dr0p9j?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr">
         <is>
           <t>3 bulan lalu</t>
         </is>
@@ -2269,25 +2216,24 @@
       </c>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr"/>
+      <c r="E50" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F50" t="n">
-        <v>4.2</v>
+        <v>-7.806369</v>
       </c>
       <c r="G50" t="n">
-        <v>-7.806369</v>
-      </c>
-      <c r="H50" t="n">
         <v>110.295946</v>
       </c>
-      <c r="I50" t="b">
-        <v>0</v>
+      <c r="H50" t="b">
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Balecatur/@-7.6790642,109.9658842,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kulon+Progo!3m6!1s0x2e7af82f62561093:0x91c5a55d78c95164!8m2!3d-7.8063689!4d110.2959457!15sCh1QYXNhciBUcmFkaXNpb25hbCBLdWxvbiBQcm9nb1ofIh1wYXNhciB0cmFkaXNpb25hbCBrdWxvbiBwcm9nb5IBBm1hcmtldJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSMGRrOXBVMGhSRUFF4AEA-gEECAAQPA!16s%2Fg%2F11bywkzxv_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J50" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Balecatur/@-7.6790642,109.9658842,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kulon+Progo!3m6!1s0x2e7af82f62561093:0x91c5a55d78c95164!8m2!3d-7.8063689!4d110.2959457!15sCh1QYXNhciBUcmFkaXNpb25hbCBLdWxvbiBQcm9nb1ofIh1wYXNhciB0cmFkaXNpb25hbCBrdWxvbiBwcm9nb5IBBm1hcmtldJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSMGRrOXBVMGhSRUFF4AEA-gEECAAQPA!16s%2Fg%2F11bywkzxv_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -2306,25 +2252,24 @@
       </c>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr"/>
+      <c r="E51" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F51" t="n">
-        <v>4.5</v>
+        <v>-7.72562</v>
       </c>
       <c r="G51" t="n">
-        <v>-7.72562</v>
-      </c>
-      <c r="H51" t="n">
         <v>110.233361</v>
       </c>
-      <c r="I51" t="b">
-        <v>0</v>
+      <c r="H51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Kebonagung+%EA%A7%8B%EA%A6%A5%EA%A6%B1%EA%A6%82%EA%A6%8F%EA%A6%BC%EA%A6%A7%EA%A6%BA%EA%A6%B4%EA%A6%A4%EA%A7%80%EA%A6%B2%EA%A6%92%EA%A6%B8%EA%A6%81/@-7.6790642,109.9658842,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kulon+Progo!3m6!1s0x2e7af153632ec7b3:0x90f68203e466d450!8m2!3d-7.7256195!4d110.2333607!15sCh1QYXNhciBUcmFkaXNpb25hbCBLdWxvbiBQcm9nb1ofIh1wYXNhciB0cmFkaXNpb25hbCBrdWxvbiBwcm9nb5IBEnRyYWRpdGlvbmFsX21hcmtldJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSWGFtOU1WbWRSUlJBQuABAPoBBAgAEDE!16s%2Fg%2F11c5bm5m9s?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J51" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Kebonagung+%EA%A7%8B%EA%A6%A5%EA%A6%B1%EA%A6%82%EA%A6%8F%EA%A6%BC%EA%A6%A7%EA%A6%BA%EA%A6%B4%EA%A6%A4%EA%A7%80%EA%A6%B2%EA%A6%92%EA%A6%B8%EA%A6%81/@-7.6790642,109.9658842,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kulon+Progo!3m6!1s0x2e7af153632ec7b3:0x90f68203e466d450!8m2!3d-7.7256195!4d110.2333607!15sCh1QYXNhciBUcmFkaXNpb25hbCBLdWxvbiBQcm9nb1ofIh1wYXNhciB0cmFkaXNpb25hbCBrdWxvbiBwcm9nb5IBEnRyYWRpdGlvbmFsX21hcmtldJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSWGFtOU1WbWRSUlJBQuABAPoBBAgAEDE!16s%2Fg%2F11c5bm5m9s?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr">
         <is>
           <t>5 hari lalu</t>
         </is>
@@ -2343,25 +2288,24 @@
       </c>
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr"/>
+      <c r="E52" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F52" t="n">
-        <v>4.2</v>
+        <v>-7.907996</v>
       </c>
       <c r="G52" t="n">
-        <v>-7.907996</v>
-      </c>
-      <c r="H52" t="n">
         <v>110.08334</v>
       </c>
-      <c r="I52" t="b">
-        <v>0</v>
+      <c r="H52" t="b">
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Pagi+Glagah/@-7.9079962,109.7949485,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kulon+Progo!3m6!1s0x2e7ae39a2bee5e61:0xa40844ee776164ab!8m2!3d-7.9079962!4d110.0833396!15sCh1QYXNhciBUcmFkaXNpb25hbCBLdWxvbiBQcm9nb1ofIh1wYXNhciB0cmFkaXNpb25hbCBrdWxvbiBwcm9nb5IBBm1hcmtldJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VONU1WQnhSM1JuUlJBQuABAPoBBAgAEDk!16s%2Fg%2F11c50rj15p?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J52" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Pagi+Glagah/@-7.9079962,109.7949485,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kulon+Progo!3m6!1s0x2e7ae39a2bee5e61:0xa40844ee776164ab!8m2!3d-7.9079962!4d110.0833396!15sCh1QYXNhciBUcmFkaXNpb25hbCBLdWxvbiBQcm9nb1ofIh1wYXNhciB0cmFkaXNpb25hbCBrdWxvbiBwcm9nb5IBBm1hcmtldJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VONU1WQnhSM1JuUlJBQuABAPoBBAgAEDk!16s%2Fg%2F11c50rj15p?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr">
         <is>
           <t>5 hari lalu</t>
         </is>
@@ -2380,25 +2324,24 @@
       </c>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
-      <c r="E53" t="inlineStr"/>
+      <c r="E53" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F53" t="n">
-        <v>4.5</v>
+        <v>-7.758406</v>
       </c>
       <c r="G53" t="n">
-        <v>-7.758406</v>
-      </c>
-      <c r="H53" t="n">
         <v>110.251644</v>
       </c>
-      <c r="I53" t="b">
-        <v>0</v>
+      <c r="H53" t="b">
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Ngijon/@-7.7584063,109.9632526,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kulon+Progo!3m6!1s0x2e7af793d7649609:0x440b90a584e4a510!8m2!3d-7.7584063!4d110.2516437!15sCh1QYXNhciBUcmFkaXNpb25hbCBLdWxvbiBQcm9nb1ofIh1wYXNhciB0cmFkaXNpb25hbCBrdWxvbiBwcm9nb5IBEnRyYWRpdGlvbmFsX21hcmtldJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOUE1FeHljSGhCUlJBQuABAPoBBAgAEC4!16s%2Fg%2F11h3k750ds?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J53" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Ngijon/@-7.7584063,109.9632526,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kulon+Progo!3m6!1s0x2e7af793d7649609:0x440b90a584e4a510!8m2!3d-7.7584063!4d110.2516437!15sCh1QYXNhciBUcmFkaXNpb25hbCBLdWxvbiBQcm9nb1ofIh1wYXNhciB0cmFkaXNpb25hbCBrdWxvbiBwcm9nb5IBEnRyYWRpdGlvbmFsX21hcmtldJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOUE1FeHljSGhCUlJBQuABAPoBBAgAEC4!16s%2Fg%2F11h3k750ds?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K53" t="inlineStr">
         <is>
           <t>2 hari lalu</t>
         </is>
@@ -2421,25 +2364,24 @@
           <t>0882-3304-3615</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr"/>
+      <c r="E54" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F54" t="n">
-        <v>4.5</v>
+        <v>-7.780264</v>
       </c>
       <c r="G54" t="n">
-        <v>-7.780264</v>
-      </c>
-      <c r="H54" t="n">
         <v>110.337461</v>
       </c>
-      <c r="I54" t="b">
-        <v>0</v>
+      <c r="H54" t="b">
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Tradisional+Telogorejo/@-7.7584063,109.9632526,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kulon+Progo!3m6!1s0x2e7a59d31486f8db:0xe6198e92405b4528!8m2!3d-7.7802642!4d110.3374606!15sCh1QYXNhciBUcmFkaXNpb25hbCBLdWxvbiBQcm9nb1ofIh1wYXNhciB0cmFkaXNpb25hbCBrdWxvbiBwcm9nb5IBBm1hcmtldJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VNdE5uVmlSM0puUlJBQuABAPoBBAgAEEY!16s%2Fg%2F11m21cw5tw?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J54" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Tradisional+Telogorejo/@-7.7584063,109.9632526,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kulon+Progo!3m6!1s0x2e7a59d31486f8db:0xe6198e92405b4528!8m2!3d-7.7802642!4d110.3374606!15sCh1QYXNhciBUcmFkaXNpb25hbCBLdWxvbiBQcm9nb1ofIh1wYXNhciB0cmFkaXNpb25hbCBrdWxvbiBwcm9nb5IBBm1hcmtldJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VNdE5uVmlSM0puUlJBQuABAPoBBAgAEEY!16s%2Fg%2F11m21cw5tw?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -2458,25 +2400,24 @@
       </c>
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr"/>
-      <c r="E55" t="inlineStr"/>
+      <c r="E55" t="n">
+        <v>3.9</v>
+      </c>
       <c r="F55" t="n">
-        <v>3.9</v>
+        <v>-7.659236</v>
       </c>
       <c r="G55" t="n">
-        <v>-7.659236</v>
-      </c>
-      <c r="H55" t="n">
         <v>110.259505</v>
       </c>
-      <c r="I55" t="b">
-        <v>0</v>
+      <c r="H55" t="b">
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Slanden/@-7.7584063,109.9632526,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kulon+Progo!3m6!1s0x2e7af4eacd6f4db7:0x5ff6f3caca273083!8m2!3d-7.6592363!4d110.2595046!15sCh1QYXNhciBUcmFkaXNpb25hbCBLdWxvbiBQcm9nb5IBDnByb2R1Y2VfbWFya2V04AEA!16s%2Fg%2F11fz9xvwyn?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J55" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Slanden/@-7.7584063,109.9632526,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kulon+Progo!3m6!1s0x2e7af4eacd6f4db7:0x5ff6f3caca273083!8m2!3d-7.6592363!4d110.2595046!15sCh1QYXNhciBUcmFkaXNpb25hbCBLdWxvbiBQcm9nb5IBDnByb2R1Y2VfbWFya2V04AEA!16s%2Fg%2F11fz9xvwyn?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr">
         <is>
           <t>3 tahun lalu</t>
         </is>
@@ -2499,25 +2440,24 @@
           <t>0832-7727-156</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr"/>
+      <c r="E56" t="n">
+        <v>3.5</v>
+      </c>
       <c r="F56" t="n">
-        <v>3.5</v>
+        <v>-7.758783</v>
       </c>
       <c r="G56" t="n">
-        <v>-7.758783</v>
-      </c>
-      <c r="H56" t="n">
         <v>110.214869</v>
       </c>
-      <c r="I56" t="b">
-        <v>0</v>
+      <c r="H56" t="b">
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Warung+Kelontong+Bu+Barjo/@-7.7584063,109.9632526,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kulon+Progo!3m6!1s0x2e7af1a3e69e8469:0xe6ec597a6566beae!8m2!3d-7.7587833!4d110.2148692!15sCh1QYXNhciBUcmFkaXNpb25hbCBLdWxvbiBQcm9nb5IBEnRyYWRpdGlvbmFsX21hcmtldOABAA!16s%2Fg%2F11gl1r13yr?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J56" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Warung+Kelontong+Bu+Barjo/@-7.7584063,109.9632526,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kulon+Progo!3m6!1s0x2e7af1a3e69e8469:0xe6ec597a6566beae!8m2!3d-7.7587833!4d110.2148692!15sCh1QYXNhciBUcmFkaXNpb25hbCBLdWxvbiBQcm9nb5IBEnRyYWRpdGlvbmFsX21hcmtldOABAA!16s%2Fg%2F11gl1r13yr?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr">
         <is>
           <t>11 bulan lalu</t>
         </is>
@@ -2536,25 +2476,24 @@
       </c>
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr"/>
-      <c r="E57" t="inlineStr"/>
+      <c r="E57" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F57" t="n">
-        <v>4.3</v>
+        <v>-7.88544</v>
       </c>
       <c r="G57" t="n">
-        <v>-7.88544</v>
-      </c>
-      <c r="H57" t="n">
         <v>110.04258</v>
       </c>
-      <c r="I57" t="b">
-        <v>0</v>
+      <c r="H57" t="b">
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Glaheng/@-7.8854402,109.7541891,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kulon+Progo!3m6!1s0x2e7ae6a867af0c01:0xef216742d5bdcaf6!8m2!3d-7.8854402!4d110.0425802!15sCh1QYXNhciBUcmFkaXNpb25hbCBLdWxvbiBQcm9nb1ofIh1wYXNhciB0cmFkaXNpb25hbCBrdWxvbiBwcm9nb5IBBm1hcmtldJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOeGRqUk1Ua1IzRUFF4AEA-gEECAAQOA!16s%2Fg%2F11cjjhlg3k?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J57" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Glaheng/@-7.8854402,109.7541891,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kulon+Progo!3m6!1s0x2e7ae6a867af0c01:0xef216742d5bdcaf6!8m2!3d-7.8854402!4d110.0425802!15sCh1QYXNhciBUcmFkaXNpb25hbCBLdWxvbiBQcm9nb1ofIh1wYXNhciB0cmFkaXNpb25hbCBrdWxvbiBwcm9nb5IBBm1hcmtldJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOeGRqUk1Ua1IzRUFF4AEA-gEECAAQOA!16s%2Fg%2F11cjjhlg3k?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K57" t="inlineStr">
         <is>
           <t>4 hari lalu</t>
         </is>
@@ -2573,25 +2512,24 @@
       </c>
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="inlineStr"/>
-      <c r="E58" t="inlineStr"/>
+      <c r="E58" t="n">
+        <v>3.4</v>
+      </c>
       <c r="F58" t="n">
-        <v>3.4</v>
+        <v>-7.879544</v>
       </c>
       <c r="G58" t="n">
-        <v>-7.879544</v>
-      </c>
-      <c r="H58" t="n">
         <v>110.095768</v>
       </c>
-      <c r="I58" t="b">
-        <v>0</v>
+      <c r="H58" t="b">
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Teteg+Kedundang/@-7.8854402,109.7541891,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kulon+Progo!3m6!1s0x2e7ae5e3c3dd4fd7:0x70c856c0d92d7d5d!8m2!3d-7.8795436!4d110.0957675!15sCh1QYXNhciBUcmFkaXNpb25hbCBLdWxvbiBQcm9nb5IBBm1hcmtldOABAA!16s%2Fg%2F11f795cj99?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J58" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Teteg+Kedundang/@-7.8854402,109.7541891,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kulon+Progo!3m6!1s0x2e7ae5e3c3dd4fd7:0x70c856c0d92d7d5d!8m2!3d-7.8795436!4d110.0957675!15sCh1QYXNhciBUcmFkaXNpb25hbCBLdWxvbiBQcm9nb5IBBm1hcmtldOABAA!16s%2Fg%2F11f795cj99?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K58" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -2610,25 +2548,24 @@
       </c>
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="inlineStr"/>
-      <c r="E59" t="inlineStr"/>
+      <c r="E59" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F59" t="n">
-        <v>4.2</v>
+        <v>-7.868651</v>
       </c>
       <c r="G59" t="n">
-        <v>-7.868651</v>
-      </c>
-      <c r="H59" t="n">
         <v>110.190375</v>
       </c>
-      <c r="I59" t="b">
-        <v>0</v>
+      <c r="H59" t="b">
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Ruko+Pasar+Milir+(%EA%A6%AB%EA%A6%B8%EA%A6%8F%EA%A6%BA%EA%A6%B4%EA%A6%A5%EA%A6%B1%EA%A6%82%EA%A6%A9%EA%A6%B6%EA%A6%AD%EA%A6%B6%EA%A6%82)/@-7.8686512,109.9019835,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kulon+Progo!3m6!1s0x2e7afb9faf0e187b:0xfa2acca9947834df!8m2!3d-7.8686512!4d110.1903746!15sCh1QYXNhciBUcmFkaXNpb25hbCBLdWxvbiBQcm9nb1ofIh1wYXNhciB0cmFkaXNpb25hbCBrdWxvbiBwcm9nb5IBBm1hcmtldJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSdGIxcGZhVVYzRUFF4AEA-gEECAAQQw!16s%2Fg%2F11cnkr04g3?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J59" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Ruko+Pasar+Milir+(%EA%A6%AB%EA%A6%B8%EA%A6%8F%EA%A6%BA%EA%A6%B4%EA%A6%A5%EA%A6%B1%EA%A6%82%EA%A6%A9%EA%A6%B6%EA%A6%AD%EA%A6%B6%EA%A6%82)/@-7.8686512,109.9019835,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kulon+Progo!3m6!1s0x2e7afb9faf0e187b:0xfa2acca9947834df!8m2!3d-7.8686512!4d110.1903746!15sCh1QYXNhciBUcmFkaXNpb25hbCBLdWxvbiBQcm9nb1ofIh1wYXNhciB0cmFkaXNpb25hbCBrdWxvbiBwcm9nb5IBBm1hcmtldJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSdGIxcGZhVVYzRUFF4AEA-gEECAAQQw!16s%2Fg%2F11cnkr04g3?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K59" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -2651,25 +2588,24 @@
           <t>0838-4096-0546</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr"/>
+      <c r="E60" t="n">
+        <v>4.1</v>
+      </c>
       <c r="F60" t="n">
-        <v>4.1</v>
+        <v>-7.842305</v>
       </c>
       <c r="G60" t="n">
-        <v>-7.842305</v>
-      </c>
-      <c r="H60" t="n">
         <v>110.129758</v>
       </c>
-      <c r="I60" t="b">
-        <v>0</v>
+      <c r="H60" t="b">
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Sorso+Gunung+Pentul/@-7.8686512,109.9019835,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kulon+Progo!3m6!1s0x2e7ae52f6b40e31d:0x9cb1f2dc27da95b4!8m2!3d-7.842305!4d110.129758!15sCh1QYXNhciBUcmFkaXNpb25hbCBLdWxvbiBQcm9nb1ofIh1wYXNhciB0cmFkaXNpb25hbCBrdWxvbiBwcm9nb5IBBm1hcmtldJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VReWJHTnlPV3BuUlJBQuABAPoBBAgAEEg!16s%2Fg%2F11hcdrdw20?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J60" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Sorso+Gunung+Pentul/@-7.8686512,109.9019835,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kulon+Progo!3m6!1s0x2e7ae52f6b40e31d:0x9cb1f2dc27da95b4!8m2!3d-7.842305!4d110.129758!15sCh1QYXNhciBUcmFkaXNpb25hbCBLdWxvbiBQcm9nb1ofIh1wYXNhciB0cmFkaXNpb25hbCBrdWxvbiBwcm9nb5IBBm1hcmtldJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VReWJHTnlPV3BuUlJBQuABAPoBBAgAEEg!16s%2Fg%2F11hcdrdw20?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K60" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -2688,25 +2624,24 @@
       </c>
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr"/>
-      <c r="E61" t="inlineStr"/>
+      <c r="E61" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F61" t="n">
-        <v>4.2</v>
+        <v>-7.773292</v>
       </c>
       <c r="G61" t="n">
-        <v>-7.773292</v>
-      </c>
-      <c r="H61" t="n">
         <v>110.200764</v>
       </c>
-      <c r="I61" t="b">
-        <v>0</v>
+      <c r="H61" t="b">
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Ikan+Nanggulan/@-7.8686512,109.9019835,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kulon+Progo!3m6!1s0x2e7af0e5588a3123:0x143dccf7beca74e5!8m2!3d-7.7732918!4d110.2007642!15sCh1QYXNhciBUcmFkaXNpb25hbCBLdWxvbiBQcm9nb1ofIh1wYXNhciB0cmFkaXNpb25hbCBrdWxvbiBwcm9nb5IBDnNlYWZvb2RfbWFya2V0mgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU5IWjNaMmNUbDNSUkFC4AEA-gEECAAQFQ!16s%2Fg%2F11clt709_g?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J61" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Ikan+Nanggulan/@-7.8686512,109.9019835,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kulon+Progo!3m6!1s0x2e7af0e5588a3123:0x143dccf7beca74e5!8m2!3d-7.7732918!4d110.2007642!15sCh1QYXNhciBUcmFkaXNpb25hbCBLdWxvbiBQcm9nb1ofIh1wYXNhciB0cmFkaXNpb25hbCBrdWxvbiBwcm9nb5IBDnNlYWZvb2RfbWFya2V0mgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU5IWjNaMmNUbDNSUkFC4AEA-gEECAAQFQ!16s%2Fg%2F11clt709_g?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K61" t="inlineStr">
         <is>
           <t>4 bulan lalu</t>
         </is>
@@ -2729,25 +2664,24 @@
           <t>0819-0379-6439</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr"/>
+      <c r="E62" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F62" t="n">
-        <v>4.3</v>
+        <v>-7.708277</v>
       </c>
       <c r="G62" t="n">
-        <v>-7.708277</v>
-      </c>
-      <c r="H62" t="n">
         <v>110.172717</v>
       </c>
-      <c r="I62" t="b">
-        <v>0</v>
+      <c r="H62" t="b">
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Bujel/@-7.8686512,109.9019835,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kulon+Progo!3m6!1s0x2e7af23bd3d37801:0x2b5496c568abb5da!8m2!3d-7.708277!4d110.1727168!15sCh1QYXNhciBUcmFkaXNpb25hbCBLdWxvbiBQcm9nb1ofIh1wYXNhciB0cmFkaXNpb25hbCBrdWxvbiBwcm9nb5IBDnByb2R1Y2VfbWFya2V0mgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU5sY1RoaWVGQm5FQUXgAQD6AQQIABAP!16s%2Fg%2F11dy1gp26v?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J62" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Bujel/@-7.8686512,109.9019835,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kulon+Progo!3m6!1s0x2e7af23bd3d37801:0x2b5496c568abb5da!8m2!3d-7.708277!4d110.1727168!15sCh1QYXNhciBUcmFkaXNpb25hbCBLdWxvbiBQcm9nb1ofIh1wYXNhciB0cmFkaXNpb25hbCBrdWxvbiBwcm9nb5IBDnByb2R1Y2VfbWFya2V0mgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU5sY1RoaWVGQm5FQUXgAQD6AQQIABAP!16s%2Fg%2F11dy1gp26v?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K62" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -2770,25 +2704,24 @@
           <t>0857-2816-5949</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr"/>
+      <c r="E63" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F63" t="n">
-        <v>4.5</v>
+        <v>-7.836547</v>
       </c>
       <c r="G63" t="n">
-        <v>-7.836547</v>
-      </c>
-      <c r="H63" t="n">
         <v>110.174394</v>
       </c>
-      <c r="I63" t="b">
-        <v>0</v>
+      <c r="H63" t="b">
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Geblek+Tempe+Bu+Parmo/@-7.8686512,109.9019835,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kulon+Progo!3m6!1s0x2e7afae5603f5d53:0x185ba9f9432ca8ff!8m2!3d-7.8365475!4d110.1743938!15sCh1QYXNhciBUcmFkaXNpb25hbCBLdWxvbiBQcm9nb1ofIh1wYXNhciB0cmFkaXNpb25hbCBrdWxvbiBwcm9nb5IBEnRyYWRpdGlvbmFsX21hcmtldJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSU05tWnBPVFIzUlJBQuABAPoBBAhsEDI!16s%2Fg%2F11cn9mnbby?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J63" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Geblek+Tempe+Bu+Parmo/@-7.8686512,109.9019835,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kulon+Progo!3m6!1s0x2e7afae5603f5d53:0x185ba9f9432ca8ff!8m2!3d-7.8365475!4d110.1743938!15sCh1QYXNhciBUcmFkaXNpb25hbCBLdWxvbiBQcm9nb1ofIh1wYXNhciB0cmFkaXNpb25hbCBrdWxvbiBwcm9nb5IBEnRyYWRpdGlvbmFsX21hcmtldJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSU05tWnBPVFIzUlJBQuABAPoBBAhsEDI!16s%2Fg%2F11cn9mnbby?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K63" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -2807,25 +2740,24 @@
       </c>
       <c r="C64" t="inlineStr"/>
       <c r="D64" t="inlineStr"/>
-      <c r="E64" t="inlineStr"/>
+      <c r="E64" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F64" t="n">
-        <v>4.4</v>
+        <v>-7.941976</v>
       </c>
       <c r="G64" t="n">
-        <v>-7.941976</v>
-      </c>
-      <c r="H64" t="n">
         <v>110.20981</v>
       </c>
-      <c r="I64" t="b">
-        <v>0</v>
+      <c r="H64" t="b">
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Mbabrik+Karangsewu+Galur/@-7.8686512,109.9019835,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kulon+Progo!3m6!1s0x2e7afddc1db5a291:0x8470040d6e546d46!8m2!3d-7.9419757!4d110.2098099!15sCh1QYXNhciBUcmFkaXNpb25hbCBLdWxvbiBQcm9nb1ofIh1wYXNhciB0cmFkaXNpb25hbCBrdWxvbiBwcm9nb5IBDnByb2R1Y2VfbWFya2V0mgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU5QT1MxTFRHOTNSUkFC4AEA-gEECAAQOQ!16s%2Fg%2F11bwnxwb2n?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J64" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Mbabrik+Karangsewu+Galur/@-7.8686512,109.9019835,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kulon+Progo!3m6!1s0x2e7afddc1db5a291:0x8470040d6e546d46!8m2!3d-7.9419757!4d110.2098099!15sCh1QYXNhciBUcmFkaXNpb25hbCBLdWxvbiBQcm9nb1ofIh1wYXNhciB0cmFkaXNpb25hbCBrdWxvbiBwcm9nb5IBDnByb2R1Y2VfbWFya2V0mgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU5QT1MxTFRHOTNSUkFC4AEA-gEECAAQOQ!16s%2Fg%2F11bwnxwb2n?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K64" t="inlineStr">
         <is>
           <t>6 hari lalu</t>
         </is>
@@ -2848,25 +2780,24 @@
           <t>0838-4361-4343</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr"/>
+      <c r="E65" t="n">
+        <v>4.1</v>
+      </c>
       <c r="F65" t="n">
-        <v>4.1</v>
+        <v>-7.859594</v>
       </c>
       <c r="G65" t="n">
-        <v>-7.859594</v>
-      </c>
-      <c r="H65" t="n">
         <v>110.123386</v>
       </c>
-      <c r="I65" t="b">
-        <v>0</v>
+      <c r="H65" t="b">
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Minso+Produsen+Gula+Jawa+Sindon/@-7.8686512,109.9019835,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kulon+Progo!3m6!1s0x2e7ae5a9b0135dcb:0x83ac80b387e82bb4!8m2!3d-7.8595937!4d110.1233857!15sCh1QYXNhciBUcmFkaXNpb25hbCBLdWxvbiBQcm9nb1ofIh1wYXNhciB0cmFkaXNpb25hbCBrdWxvbiBwcm9nb5IBEnRyYWRpdGlvbmFsX21hcmtldJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSNE9WbDVTbUpuRUFF4AEA-gEECAAQGA!16s%2Fg%2F11f5q761kl?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J65" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Minso+Produsen+Gula+Jawa+Sindon/@-7.8686512,109.9019835,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kulon+Progo!3m6!1s0x2e7ae5a9b0135dcb:0x83ac80b387e82bb4!8m2!3d-7.8595937!4d110.1233857!15sCh1QYXNhciBUcmFkaXNpb25hbCBLdWxvbiBQcm9nb1ofIh1wYXNhciB0cmFkaXNpb25hbCBrdWxvbiBwcm9nb5IBEnRyYWRpdGlvbmFsX21hcmtldJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSNE9WbDVTbUpuRUFF4AEA-gEECAAQGA!16s%2Fg%2F11f5q761kl?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K65" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -2885,25 +2816,24 @@
       </c>
       <c r="C66" t="inlineStr"/>
       <c r="D66" t="inlineStr"/>
-      <c r="E66" t="inlineStr"/>
+      <c r="E66" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F66" t="n">
-        <v>4.3</v>
+        <v>-7.761345</v>
       </c>
       <c r="G66" t="n">
-        <v>-7.761345</v>
-      </c>
-      <c r="H66" t="n">
         <v>110.362834</v>
       </c>
-      <c r="I66" t="b">
-        <v>0</v>
+      <c r="H66" t="b">
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Kutu/@-7.7613449,110.0744425,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kulon+Progo!3m6!1s0x2e7a585bc84c16d3:0x7c8ec8b1852ab648!8m2!3d-7.7613449!4d110.3628336!15sCh1QYXNhciBUcmFkaXNpb25hbCBLdWxvbiBQcm9nb1ofIh1wYXNhciB0cmFkaXNpb25hbCBrdWxvbiBwcm9nb5IBEnRyYWRpdGlvbmFsX21hcmtldJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOTGFEbFBhbkZSUlJBQuABAPoBBAgAEEY!16s%2Fg%2F11b77m8kkc?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J66" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Kutu/@-7.7613449,110.0744425,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kulon+Progo!3m6!1s0x2e7a585bc84c16d3:0x7c8ec8b1852ab648!8m2!3d-7.7613449!4d110.3628336!15sCh1QYXNhciBUcmFkaXNpb25hbCBLdWxvbiBQcm9nb1ofIh1wYXNhciB0cmFkaXNpb25hbCBrdWxvbiBwcm9nb5IBEnRyYWRpdGlvbmFsX21hcmtldJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOTGFEbFBhbkZSUlJBQuABAPoBBAgAEEY!16s%2Fg%2F11b77m8kkc?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K66" t="inlineStr">
         <is>
           <t>1 hari lalu</t>
         </is>
@@ -2922,25 +2852,24 @@
       </c>
       <c r="C67" t="inlineStr"/>
       <c r="D67" t="inlineStr"/>
-      <c r="E67" t="inlineStr"/>
+      <c r="E67" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F67" t="n">
-        <v>4.5</v>
+        <v>-7.813789</v>
       </c>
       <c r="G67" t="n">
-        <v>-7.813789</v>
-      </c>
-      <c r="H67" t="n">
         <v>110.36937</v>
       </c>
-      <c r="I67" t="b">
-        <v>0</v>
+      <c r="H67" t="b">
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Tradisional+Pujokusuman/@-7.7613449,110.0744425,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kulon+Progo!3m6!1s0x2e7a5799aaa63c5b:0xb191493a7eeeb16b!8m2!3d-7.8137893!4d110.3693695!15sCh1QYXNhciBUcmFkaXNpb25hbCBLdWxvbiBQcm9nb1ofIh1wYXNhciB0cmFkaXNpb25hbCBrdWxvbiBwcm9nb5IBEnRyYWRpdGlvbmFsX21hcmtldJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOSGRXTnBSVlpSRUFF4AEA-gEECAAQRg!16s%2Fg%2F11g6nhb58y?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J67" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Tradisional+Pujokusuman/@-7.7613449,110.0744425,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kulon+Progo!3m6!1s0x2e7a5799aaa63c5b:0xb191493a7eeeb16b!8m2!3d-7.8137893!4d110.3693695!15sCh1QYXNhciBUcmFkaXNpb25hbCBLdWxvbiBQcm9nb1ofIh1wYXNhciB0cmFkaXNpb25hbCBrdWxvbiBwcm9nb5IBEnRyYWRpdGlvbmFsX21hcmtldJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOSGRXTnBSVlpSRUFF4AEA-gEECAAQRg!16s%2Fg%2F11g6nhb58y?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K67" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -2963,25 +2892,24 @@
           <t>0877-3881-3135</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr"/>
+      <c r="E68" t="n">
+        <v>4</v>
+      </c>
       <c r="F68" t="n">
-        <v>4</v>
+        <v>-7.859727</v>
       </c>
       <c r="G68" t="n">
-        <v>-7.859727</v>
-      </c>
-      <c r="H68" t="n">
         <v>110.155451</v>
       </c>
-      <c r="I68" t="b">
-        <v>0</v>
+      <c r="H68" t="b">
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Toko+Sri+Bali+2/@-7.8597275,109.8670597,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kulon+Progo!3m6!1s0x2e7afb3b1c3d596b:0xe05185689a06780d!8m2!3d-7.8597275!4d110.1554508!15sCh1QYXNhciBUcmFkaXNpb25hbCBLdWxvbiBQcm9nb1ofIh1wYXNhciB0cmFkaXNpb25hbCBrdWxvbiBwcm9nb5IBEnRyYWRpdGlvbmFsX21hcmtldJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VReWREY3RhVzUzUlJBQuABAPoBBAgAEC0!16s%2Fg%2F11c1sz_gwj?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J68" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Toko+Sri+Bali+2/@-7.8597275,109.8670597,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kulon+Progo!3m6!1s0x2e7afb3b1c3d596b:0xe05185689a06780d!8m2!3d-7.8597275!4d110.1554508!15sCh1QYXNhciBUcmFkaXNpb25hbCBLdWxvbiBQcm9nb1ofIh1wYXNhciB0cmFkaXNpb25hbCBrdWxvbiBwcm9nb5IBEnRyYWRpdGlvbmFsX21hcmtldJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VReWREY3RhVzUzUlJBQuABAPoBBAgAEC0!16s%2Fg%2F11c1sz_gwj?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K68" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -3000,25 +2928,24 @@
       </c>
       <c r="C69" t="inlineStr"/>
       <c r="D69" t="inlineStr"/>
-      <c r="E69" t="inlineStr"/>
+      <c r="E69" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F69" t="n">
-        <v>4.3</v>
+        <v>-7.71913</v>
       </c>
       <c r="G69" t="n">
-        <v>-7.71913</v>
-      </c>
-      <c r="H69" t="n">
         <v>110.119201</v>
       </c>
-      <c r="I69" t="b">
-        <v>0</v>
+      <c r="H69" t="b">
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Pendem/@-7.8597275,109.8670597,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kulon+Progo!3m6!1s0x2e7aede2ffffffff:0xfd0030f37c300e3c!8m2!3d-7.7191302!4d110.1192009!15sCh1QYXNhciBUcmFkaXNpb25hbCBLdWxvbiBQcm9nb1ofIh1wYXNhciB0cmFkaXNpb25hbCBrdWxvbiBwcm9nb5IBEnRyYWRpdGlvbmFsX21hcmtldJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOeWVEWkRWV3RuUlJBQuABAPoBBAgAEDM!16s%2Fg%2F11b66bhzd2?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J69" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Pendem/@-7.8597275,109.8670597,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kulon+Progo!3m6!1s0x2e7aede2ffffffff:0xfd0030f37c300e3c!8m2!3d-7.7191302!4d110.1192009!15sCh1QYXNhciBUcmFkaXNpb25hbCBLdWxvbiBQcm9nb1ofIh1wYXNhciB0cmFkaXNpb25hbCBrdWxvbiBwcm9nb5IBEnRyYWRpdGlvbmFsX21hcmtldJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOeWVEWkRWV3RuUlJBQuABAPoBBAgAEDM!16s%2Fg%2F11b66bhzd2?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K69" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -3037,25 +2964,24 @@
       </c>
       <c r="C70" t="inlineStr"/>
       <c r="D70" t="inlineStr"/>
-      <c r="E70" t="inlineStr"/>
+      <c r="E70" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F70" t="n">
-        <v>4.4</v>
+        <v>-7.772778</v>
       </c>
       <c r="G70" t="n">
-        <v>-7.772778</v>
-      </c>
-      <c r="H70" t="n">
         <v>110.361617</v>
       </c>
-      <c r="I70" t="b">
-        <v>0</v>
+      <c r="H70" t="b">
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Karangwaru(%EA%A7%8B%EA%A6%A5%EA%A6%B1%EA%A6%82%EA%A6%8F%EA%A6%AB%EA%A6%81%EA%A6%AE%EA%A6%AB%EA%A6%B8)/@-7.7727776,110.0732258,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kulon+Progo!3m6!1s0x2e7a5846dc4ce3b3:0x2637efb9709d9528!8m2!3d-7.7727776!4d110.3616169!15sCh1QYXNhciBUcmFkaXNpb25hbCBLdWxvbiBQcm9nb1ofIh1wYXNhciB0cmFkaXNpb25hbCBrdWxvbiBwcm9nb5IBEnRyYWRpdGlvbmFsX21hcmtldJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOaGFsQkVTVEJSUlJBQuABAPoBBAgAEDU!16s%2Fg%2F11c54bq5fb?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J70" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Karangwaru(%EA%A7%8B%EA%A6%A5%EA%A6%B1%EA%A6%82%EA%A6%8F%EA%A6%AB%EA%A6%81%EA%A6%AE%EA%A6%AB%EA%A6%B8)/@-7.7727776,110.0732258,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kulon+Progo!3m6!1s0x2e7a5846dc4ce3b3:0x2637efb9709d9528!8m2!3d-7.7727776!4d110.3616169!15sCh1QYXNhciBUcmFkaXNpb25hbCBLdWxvbiBQcm9nb1ofIh1wYXNhciB0cmFkaXNpb25hbCBrdWxvbiBwcm9nb5IBEnRyYWRpdGlvbmFsX21hcmtldJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOaGFsQkVTVEJSUlJBQuABAPoBBAgAEDU!16s%2Fg%2F11c54bq5fb?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K70" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -3074,25 +3000,24 @@
       </c>
       <c r="C71" t="inlineStr"/>
       <c r="D71" t="inlineStr"/>
-      <c r="E71" t="inlineStr"/>
+      <c r="E71" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F71" t="n">
-        <v>4.5</v>
+        <v>-7.840031</v>
       </c>
       <c r="G71" t="n">
-        <v>-7.840031</v>
-      </c>
-      <c r="H71" t="n">
         <v>110.350342</v>
       </c>
-      <c r="I71" t="b">
-        <v>0</v>
+      <c r="H71" t="b">
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Niten+Baru/@-7.7727776,110.0732258,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kulon+Progo!3m6!1s0x2e7a579b9e089ad3:0xdda6c4b72729996c!8m2!3d-7.8400311!4d110.3503417!15sCh1QYXNhciBUcmFkaXNpb25hbCBLdWxvbiBQcm9nb1ofIh1wYXNhciB0cmFkaXNpb25hbCBrdWxvbiBwcm9nb5IBEnRyYWRpdGlvbmFsX21hcmtldJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOaGRUZHhSVTlCRUFF4AEA-gEECAAQNQ!16s%2Fg%2F11fd7323xw?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J71" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Niten+Baru/@-7.7727776,110.0732258,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kulon+Progo!3m6!1s0x2e7a579b9e089ad3:0xdda6c4b72729996c!8m2!3d-7.8400311!4d110.3503417!15sCh1QYXNhciBUcmFkaXNpb25hbCBLdWxvbiBQcm9nb1ofIh1wYXNhciB0cmFkaXNpb25hbCBrdWxvbiBwcm9nb5IBEnRyYWRpdGlvbmFsX21hcmtldJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOaGRUZHhSVTlCRUFF4AEA-gEECAAQNQ!16s%2Fg%2F11fd7323xw?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K71" t="inlineStr">
         <is>
           <t>2 minggu lalu</t>
         </is>
@@ -3111,25 +3036,24 @@
       </c>
       <c r="C72" t="inlineStr"/>
       <c r="D72" t="inlineStr"/>
-      <c r="E72" t="inlineStr"/>
+      <c r="E72" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F72" t="n">
-        <v>4.5</v>
+        <v>-7.885056</v>
       </c>
       <c r="G72" t="n">
-        <v>-7.885056</v>
-      </c>
-      <c r="H72" t="n">
         <v>110.330636</v>
       </c>
-      <c r="I72" t="b">
-        <v>0</v>
+      <c r="H72" t="b">
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Bantul/@-7.7727776,110.0732258,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kulon+Progo!3m6!1s0x2e7aff55f930b30b:0xcb3ed7dbcb8082fc!8m2!3d-7.8850563!4d110.3306357!15sCh1QYXNhciBUcmFkaXNpb25hbCBLdWxvbiBQcm9nb1ofIh1wYXNhciB0cmFkaXNpb25hbCBrdWxvbiBwcm9nb5IBBm1hcmtldJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VNMmRtOUxXbkZCUlJBQuABAPoBBAgAEEA!16s%2Fg%2F1yg578294?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J72" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Bantul/@-7.7727776,110.0732258,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kulon+Progo!3m6!1s0x2e7aff55f930b30b:0xcb3ed7dbcb8082fc!8m2!3d-7.8850563!4d110.3306357!15sCh1QYXNhciBUcmFkaXNpb25hbCBLdWxvbiBQcm9nb1ofIh1wYXNhciB0cmFkaXNpb25hbCBrdWxvbiBwcm9nb5IBBm1hcmtldJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VNMmRtOUxXbkZCUlJBQuABAPoBBAgAEEA!16s%2Fg%2F1yg578294?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K72" t="inlineStr">
         <is>
           <t>2 hari lalu</t>
         </is>
@@ -3148,25 +3072,24 @@
       </c>
       <c r="C73" t="inlineStr"/>
       <c r="D73" t="inlineStr"/>
-      <c r="E73" t="inlineStr"/>
+      <c r="E73" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F73" t="n">
-        <v>4.6</v>
+        <v>-7.82923</v>
       </c>
       <c r="G73" t="n">
-        <v>-7.82923</v>
-      </c>
-      <c r="H73" t="n">
         <v>110.343348</v>
       </c>
-      <c r="I73" t="b">
-        <v>0</v>
-      </c>
-      <c r="J73" t="inlineStr">
+      <c r="H73" t="b">
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Pasar+Desa+Tirtonirmolo/@-7.7727776,110.0732258,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kulon+Progo!3m6!1s0x2e7a57ed4594e55d:0xb2e6dd9d93b0a1cd!8m2!3d-7.8292303!4d110.3433478!15sCh1QYXNhciBUcmFkaXNpb25hbCBLdWxvbiBQcm9nb1ofIh1wYXNhciB0cmFkaXNpb25hbCBrdWxvbiBwcm9nb5IBEnRyYWRpdGlvbmFsX21hcmtldJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSSE5UUlljRzlSUlJBQuABAPoBBAgAEDM!16s%2Fg%2F11ghp085p0?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -3186,22 +3109,21 @@
         </is>
       </c>
       <c r="E74" t="inlineStr"/>
-      <c r="F74" t="inlineStr"/>
+      <c r="F74" t="n">
+        <v>-7.858878</v>
+      </c>
       <c r="G74" t="n">
-        <v>-7.858878</v>
-      </c>
-      <c r="H74" t="n">
         <v>110.149553</v>
       </c>
-      <c r="I74" t="b">
-        <v>0</v>
-      </c>
-      <c r="J74" t="inlineStr">
+      <c r="H74" t="b">
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Toko+Agus-Sri+Bali/@-7.8588784,109.8611622,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kulon+Progo!3m6!1s0x2e7afb3b1c960ec1:0xf305e66b0030db6e!8m2!3d-7.8588784!4d110.1495533!15sCh1QYXNhciBUcmFkaXNpb25hbCBLdWxvbiBQcm9nb5IBEnRyYWRpdGlvbmFsX21hcmtldOABAA!16s%2Fg%2F11c6dvjv94?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -3216,25 +3138,24 @@
       </c>
       <c r="C75" t="inlineStr"/>
       <c r="D75" t="inlineStr"/>
-      <c r="E75" t="inlineStr"/>
+      <c r="E75" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F75" t="n">
-        <v>4.5</v>
+        <v>-7.795639</v>
       </c>
       <c r="G75" t="n">
-        <v>-7.795639</v>
-      </c>
-      <c r="H75" t="n">
         <v>110.361298</v>
       </c>
-      <c r="I75" t="b">
-        <v>0</v>
-      </c>
-      <c r="J75" t="inlineStr">
+      <c r="H75" t="b">
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Pasar+Senen/@-7.7956394,110.0729064,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kulon+Progo!3m6!1s0x2e7a5827516ba389:0x5b0c107dea397037!8m2!3d-7.7956394!4d110.3612975!15sCh1QYXNhciBUcmFkaXNpb25hbCBLdWxvbiBQcm9nb1ofIh1wYXNhciB0cmFkaXNpb25hbCBrdWxvbiBwcm9nb5IBEnRyYWRpdGlvbmFsX21hcmtldJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOUGVHUkxSR2RuUlJBQuABAPoBBAgAEDk!16s%2Fg%2F11c6y_vxd_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -3250,22 +3171,21 @@
       <c r="C76" t="inlineStr"/>
       <c r="D76" t="inlineStr"/>
       <c r="E76" t="inlineStr"/>
-      <c r="F76" t="inlineStr"/>
+      <c r="F76" t="n">
+        <v>-7.739841</v>
+      </c>
       <c r="G76" t="n">
-        <v>-7.739841</v>
-      </c>
-      <c r="H76" t="n">
         <v>110.20563</v>
       </c>
-      <c r="I76" t="b">
-        <v>0</v>
-      </c>
-      <c r="J76" t="inlineStr">
+      <c r="H76" t="b">
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Warung+pak+Kameso/@-7.739841,109.9172391,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kulon+Progo!3m6!1s0x2e7af1de8ad86a41:0xe4bd9c6a898969f7!8m2!3d-7.739841!4d110.2056302!15sCh1QYXNhciBUcmFkaXNpb25hbCBLdWxvbiBQcm9nb5IBEnRyYWRpdGlvbmFsX21hcmtldOABAA!16s%2Fg%2F11j23nwkg9?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -3280,25 +3200,24 @@
       </c>
       <c r="C77" t="inlineStr"/>
       <c r="D77" t="inlineStr"/>
-      <c r="E77" t="inlineStr"/>
+      <c r="E77" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F77" t="n">
-        <v>4.6</v>
+        <v>-7.800421</v>
       </c>
       <c r="G77" t="n">
-        <v>-7.800421</v>
-      </c>
-      <c r="H77" t="n">
         <v>110.324007</v>
       </c>
-      <c r="I77" t="b">
-        <v>0</v>
-      </c>
-      <c r="J77" t="inlineStr">
+      <c r="H77" t="b">
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Pasar+Gamping+Sleman/@-7.739841,109.9172391,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kulon+Progo!3m6!1s0x2e7af9b2700a92cf:0x204add1214fabe!8m2!3d-7.8004209!4d110.3240069!15sCh1QYXNhciBUcmFkaXNpb25hbCBLdWxvbiBQcm9nb1ofIh1wYXNhciB0cmFkaXNpb25hbCBrdWxvbiBwcm9nb5IBEnRyYWRpdGlvbmFsX21hcmtldJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VNdExXRnlPSFJCUlJBQuABAPoBBAhxEEM!16s%2Fg%2F11qq_pvwbm?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -3313,25 +3232,24 @@
       </c>
       <c r="C78" t="inlineStr"/>
       <c r="D78" t="inlineStr"/>
-      <c r="E78" t="inlineStr"/>
+      <c r="E78" t="n">
+        <v>5</v>
+      </c>
       <c r="F78" t="n">
-        <v>5</v>
+        <v>-7.799131</v>
       </c>
       <c r="G78" t="n">
-        <v>-7.799131</v>
-      </c>
-      <c r="H78" t="n">
         <v>110.117621</v>
       </c>
-      <c r="I78" t="b">
-        <v>0</v>
+      <c r="H78" t="b">
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ANGKRINGAN+TANI+SEGLUNDUNG/@-7.739841,109.9172391,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kulon+Progo!3m6!1s0x2e7aef2c62aaf08d:0x113783946f3a4e0c!8m2!3d-7.7991313!4d110.1176207!15sCh1QYXNhciBUcmFkaXNpb25hbCBLdWxvbiBQcm9nb1ofIh1wYXNhciB0cmFkaXNpb25hbCBrdWxvbiBwcm9nb5IBDG5pZ2h0X21hcmtldJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSeU5FdGhPV2RuUlJBQuABAPoBBAgAEB0!16s%2Fg%2F11shlzrb67?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J78" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ANGKRINGAN+TANI+SEGLUNDUNG/@-7.739841,109.9172391,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kulon+Progo!3m6!1s0x2e7aef2c62aaf08d:0x113783946f3a4e0c!8m2!3d-7.7991313!4d110.1176207!15sCh1QYXNhciBUcmFkaXNpb25hbCBLdWxvbiBQcm9nb1ofIh1wYXNhciB0cmFkaXNpb25hbCBrdWxvbiBwcm9nb5IBDG5pZ2h0X21hcmtldJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSeU5FdGhPV2RuUlJBQuABAPoBBAgAEB0!16s%2Fg%2F11shlzrb67?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K78" t="inlineStr">
         <is>
           <t>6 bulan lalu</t>
         </is>
@@ -3350,25 +3268,24 @@
       </c>
       <c r="C79" t="inlineStr"/>
       <c r="D79" t="inlineStr"/>
-      <c r="E79" t="inlineStr"/>
+      <c r="E79" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F79" t="n">
-        <v>4.4</v>
+        <v>-7.80966</v>
       </c>
       <c r="G79" t="n">
-        <v>-7.80966</v>
-      </c>
-      <c r="H79" t="n">
         <v>110.349856</v>
       </c>
-      <c r="I79" t="b">
-        <v>0</v>
+      <c r="H79" t="b">
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Legi+Patangpuluhan/@-7.80966,110.0614647,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kulon+Progo!3m6!1s0x2e7a57edcd21a431:0x68cd3c233b683290!8m2!3d-7.80966!4d110.3498558!15sCh1QYXNhciBUcmFkaXNpb25hbCBLdWxvbiBQcm9nb1ofIh1wYXNhciB0cmFkaXNpb25hbCBrdWxvbiBwcm9nb5IBEnRyYWRpdGlvbmFsX21hcmtldJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOU2NYWXpUVmQzRUFF4AEA-gEECAAQJg!16s%2Fg%2F1hm6l8jl_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J79" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Legi+Patangpuluhan/@-7.80966,110.0614647,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kulon+Progo!3m6!1s0x2e7a57edcd21a431:0x68cd3c233b683290!8m2!3d-7.80966!4d110.3498558!15sCh1QYXNhciBUcmFkaXNpb25hbCBLdWxvbiBQcm9nb1ofIh1wYXNhciB0cmFkaXNpb25hbCBrdWxvbiBwcm9nb5IBEnRyYWRpdGlvbmFsX21hcmtldJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOU2NYWXpUVmQzRUFF4AEA-gEECAAQJg!16s%2Fg%2F1hm6l8jl_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K79" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -3391,25 +3308,24 @@
         </is>
       </c>
       <c r="D80" t="inlineStr"/>
-      <c r="E80" t="inlineStr"/>
+      <c r="E80" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F80" t="n">
-        <v>4.5</v>
+        <v>-7.78247</v>
       </c>
       <c r="G80" t="n">
-        <v>-7.78247</v>
-      </c>
-      <c r="H80" t="n">
         <v>110.365721</v>
       </c>
-      <c r="I80" t="b">
-        <v>0</v>
+      <c r="H80" t="b">
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Kranggan+(%EA%A7%8B%EA%A6%A5%EA%A6%B1%EA%A6%82%EA%A6%8F%EA%A6%BF%EA%A6%81%EA%A6%92%EA%A6%A4%EA%A7%80)/@-7.80966,110.0614647,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kulon+Progo!3m6!1s0x2e7a583a6f1c71c5:0x343c42f7032722b7!8m2!3d-7.7824702!4d110.3657212!15sCh1QYXNhciBUcmFkaXNpb25hbCBLdWxvbiBQcm9nb1ofIh1wYXNhciB0cmFkaXNpb25hbCBrdWxvbiBwcm9nb5IBDnByb2R1Y2VfbWFya2V0mgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJ0Y0VwSWEzRm5SUkFC4AEA-gEECAAQLw!16s%2Fg%2F1hm2fpp1j?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J80" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Kranggan+(%EA%A7%8B%EA%A6%A5%EA%A6%B1%EA%A6%82%EA%A6%8F%EA%A6%BF%EA%A6%81%EA%A6%92%EA%A6%A4%EA%A7%80)/@-7.80966,110.0614647,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kulon+Progo!3m6!1s0x2e7a583a6f1c71c5:0x343c42f7032722b7!8m2!3d-7.7824702!4d110.3657212!15sCh1QYXNhciBUcmFkaXNpb25hbCBLdWxvbiBQcm9nb1ofIh1wYXNhciB0cmFkaXNpb25hbCBrdWxvbiBwcm9nb5IBDnByb2R1Y2VfbWFya2V0mgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJ0Y0VwSWEzRm5SUkFC4AEA-gEECAAQLw!16s%2Fg%2F1hm2fpp1j?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K80" t="inlineStr">
         <is>
           <t>16 jam lalu</t>
         </is>
@@ -3433,22 +3349,21 @@
         </is>
       </c>
       <c r="E81" t="inlineStr"/>
-      <c r="F81" t="inlineStr"/>
+      <c r="F81" t="n">
+        <v>-7.836701</v>
+      </c>
       <c r="G81" t="n">
-        <v>-7.836701</v>
-      </c>
-      <c r="H81" t="n">
         <v>110.152249</v>
       </c>
-      <c r="I81" t="b">
-        <v>0</v>
-      </c>
-      <c r="J81" t="inlineStr">
+      <c r="H81" t="b">
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Pasar+Tani+Dhuawar+Kroco/@-7.8367005,109.8638576,11z/data=!4m10!1m2!2m1!1sPasar+Tradisional+Kulon+Progo!3m6!1s0x2e7afb5acb6d7cbd:0xffe5e78927e41982!8m2!3d-7.8367005!4d110.1522487!15sCh1QYXNhciBUcmFkaXNpb25hbCBLdWxvbiBQcm9nb5IBDmZhcm1lcnNfbWFya2V04AEA!16s%2Fg%2F11kkg_l3pv?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
